--- a/Examples/Financials.xlsx
+++ b/Examples/Financials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\others\data\xlquote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39828635-8D67-4EB5-B2C5-E9B3842D2387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9906A-4265-47BF-85F6-B312C2B90DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="41.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -764,23 +764,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B5)/1000000,0)</f>
+        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$3,C$2)/1000000,0)</f>
         <v>215639</v>
       </c>
       <c r="D5" s="1" cm="1">
-        <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B5)/1000000,0)</f>
+        <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,D$3,D$2)/1000000,0)</f>
         <v>229234</v>
       </c>
       <c r="E5" s="1" cm="1">
-        <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B5)/1000000,0)</f>
+        <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,E$3,E$2)/1000000,0)</f>
         <v>265595</v>
       </c>
       <c r="F5" s="1" cm="1">
-        <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B5)/1000000,0)</f>
+        <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,F$3,F$2)/1000000,0)</f>
         <v>260174</v>
       </c>
       <c r="G5" s="1" cm="1">
-        <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B5)/1000000,0)</f>
+        <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,G$3,G$2)/1000000,0)</f>
         <v>274515</v>
       </c>
     </row>
@@ -792,23 +792,23 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" cm="1">
-        <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B6)/1000000,0)</f>
+        <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,C$3,C$2)/1000000,0)</f>
         <v>-131376</v>
       </c>
       <c r="D6" s="1" cm="1">
-        <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B6)/1000000,0)</f>
+        <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,D$3,D$2)/1000000,0)</f>
         <v>-141048</v>
       </c>
       <c r="E6" s="1" cm="1">
-        <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B6)/1000000,0)</f>
+        <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,E$3,E$2)/1000000,0)</f>
         <v>-163756</v>
       </c>
       <c r="F6" s="1" cm="1">
-        <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B6)/1000000,0)</f>
+        <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,F$3,F$2)/1000000,0)</f>
         <v>-161782</v>
       </c>
       <c r="G6" s="1" cm="1">
-        <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B6)/1000000,0)</f>
+        <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,G$3,G$2)/1000000,0)</f>
         <v>-169559</v>
       </c>
     </row>
@@ -820,23 +820,23 @@
         <v>18</v>
       </c>
       <c r="C7" s="6" cm="1">
-        <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B7)/1000000,0)</f>
+        <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,C$3,C$2)/1000000,0)</f>
         <v>84263</v>
       </c>
       <c r="D7" s="6" cm="1">
-        <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B7)/1000000,0)</f>
+        <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,D$3,D$2)/1000000,0)</f>
         <v>88186</v>
       </c>
       <c r="E7" s="6" cm="1">
-        <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B7)/1000000,0)</f>
+        <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,E$3,E$2)/1000000,0)</f>
         <v>101839</v>
       </c>
       <c r="F7" s="6" cm="1">
-        <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B7)/1000000,0)</f>
+        <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,F$3,F$2)/1000000,0)</f>
         <v>98392</v>
       </c>
       <c r="G7" s="6" cm="1">
-        <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B7)/1000000,0)</f>
+        <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,G$3,G$2)/1000000,0)</f>
         <v>104956</v>
       </c>
     </row>
@@ -848,23 +848,23 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" cm="1">
-        <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B8)/1000000,0)</f>
+        <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,C$3,C$2)/1000000,0)</f>
         <v>-24239</v>
       </c>
       <c r="D8" s="1" cm="1">
-        <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B8)/1000000,0)</f>
+        <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,D$3,D$2)/1000000,0)</f>
         <v>-26842</v>
       </c>
       <c r="E8" s="1" cm="1">
-        <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B8)/1000000,0)</f>
+        <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,E$3,E$2)/1000000,0)</f>
         <v>-30941</v>
       </c>
       <c r="F8" s="1" cm="1">
-        <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B8)/1000000,0)</f>
+        <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,F$3,F$2)/1000000,0)</f>
         <v>-34462</v>
       </c>
       <c r="G8" s="1" cm="1">
-        <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B8)/1000000,0)</f>
+        <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,G$3,G$2)/1000000,0)</f>
         <v>-38668</v>
       </c>
     </row>
@@ -876,23 +876,23 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" cm="1">
-        <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B9)/1000000,0)</f>
+        <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,C$3,C$2)/1000000,0)</f>
         <v>-14194</v>
       </c>
       <c r="D9" s="1" cm="1">
-        <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B9)/1000000,0)</f>
+        <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,D$3,D$2)/1000000,0)</f>
         <v>-15261</v>
       </c>
       <c r="E9" s="1" cm="1">
-        <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B9)/1000000,0)</f>
+        <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,E$3,E$2)/1000000,0)</f>
         <v>-16705</v>
       </c>
       <c r="F9" s="1" cm="1">
-        <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B9)/1000000,0)</f>
+        <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,F$3,F$2)/1000000,0)</f>
         <v>-18245</v>
       </c>
       <c r="G9" s="1" cm="1">
-        <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B9)/1000000,0)</f>
+        <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,G$3,G$2)/1000000,0)</f>
         <v>-19916</v>
       </c>
     </row>
@@ -904,23 +904,23 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B10)/1000000,0)</f>
+        <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,C$3,C$2)/1000000,0)</f>
         <v>-10045</v>
       </c>
       <c r="D10" s="1" cm="1">
-        <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B10)/1000000,0)</f>
+        <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,D$3,D$2)/1000000,0)</f>
         <v>-11581</v>
       </c>
       <c r="E10" s="1" cm="1">
-        <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B10)/1000000,0)</f>
+        <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,E$3,E$2)/1000000,0)</f>
         <v>-14236</v>
       </c>
       <c r="F10" s="1" cm="1">
-        <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B10)/1000000,0)</f>
+        <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,F$3,F$2)/1000000,0)</f>
         <v>-16217</v>
       </c>
       <c r="G10" s="1" cm="1">
-        <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B10)/1000000,0)</f>
+        <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,G$3,G$2)/1000000,0)</f>
         <v>-18752</v>
       </c>
     </row>
@@ -932,23 +932,23 @@
         <v>28</v>
       </c>
       <c r="C11" s="6" cm="1">
-        <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B11)/1000000,0)</f>
+        <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,C$3,C$2)/1000000,0)</f>
         <v>60024</v>
       </c>
       <c r="D11" s="6" cm="1">
-        <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B11)/1000000,0)</f>
+        <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,D$3,D$2)/1000000,0)</f>
         <v>61344</v>
       </c>
       <c r="E11" s="6" cm="1">
-        <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B11)/1000000,0)</f>
+        <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,E$3,E$2)/1000000,0)</f>
         <v>70898</v>
       </c>
       <c r="F11" s="6" cm="1">
-        <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B11)/1000000,0)</f>
+        <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,F$3,F$2)/1000000,0)</f>
         <v>63930</v>
       </c>
       <c r="G11" s="6" cm="1">
-        <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B11)/1000000,0)</f>
+        <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,G$3,G$2)/1000000,0)</f>
         <v>66288</v>
       </c>
     </row>
@@ -960,23 +960,23 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" cm="1">
-        <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B12)/1000000,0)</f>
+        <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,C$3,C$2)/1000000,0)</f>
         <v>1348</v>
       </c>
       <c r="D12" s="1" cm="1">
-        <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B12)/1000000,0)</f>
+        <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,D$3,D$2)/1000000,0)</f>
         <v>2745</v>
       </c>
       <c r="E12" s="1" cm="1">
-        <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B12)/1000000,0)</f>
+        <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,E$3,E$2)/1000000,0)</f>
         <v>2005</v>
       </c>
       <c r="F12" s="1" cm="1">
-        <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B12)/1000000,0)</f>
+        <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,F$3,F$2)/1000000,0)</f>
         <v>1807</v>
       </c>
       <c r="G12" s="1" cm="1">
-        <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B12)/1000000,0)</f>
+        <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,G$3,G$2)/1000000,0)</f>
         <v>803</v>
       </c>
     </row>
@@ -988,23 +988,23 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B13)/1000000,0)</f>
+        <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,C$3,C$2)/1000000,0)</f>
         <v>61372</v>
       </c>
       <c r="D13" s="1" cm="1">
-        <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B13)/1000000,0)</f>
+        <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,D$3,D$2)/1000000,0)</f>
         <v>64089</v>
       </c>
       <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B13)/1000000,0)</f>
+        <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,E$3,E$2)/1000000,0)</f>
         <v>72903</v>
       </c>
       <c r="F13" s="1" cm="1">
-        <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B13)/1000000,0)</f>
+        <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,F$3,F$2)/1000000,0)</f>
         <v>65737</v>
       </c>
       <c r="G13" s="1" cm="1">
-        <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B13)/1000000,0)</f>
+        <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,G$3,G$2)/1000000,0)</f>
         <v>67091</v>
       </c>
     </row>
@@ -1016,23 +1016,23 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B14)/1000000,0)</f>
+        <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,C$3,C$2)/1000000,0)</f>
         <v>-15685</v>
       </c>
       <c r="D14" s="1" cm="1">
-        <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B14)/1000000,0)</f>
+        <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,D$3,D$2)/1000000,0)</f>
         <v>-15738</v>
       </c>
       <c r="E14" s="1" cm="1">
-        <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B14)/1000000,0)</f>
+        <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,E$3,E$2)/1000000,0)</f>
         <v>-13372</v>
       </c>
       <c r="F14" s="1" cm="1">
-        <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B14)/1000000,0)</f>
+        <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,F$3,F$2)/1000000,0)</f>
         <v>-10481</v>
       </c>
       <c r="G14" s="1" cm="1">
-        <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B14)/1000000,0)</f>
+        <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,G$3,G$2)/1000000,0)</f>
         <v>-9680</v>
       </c>
     </row>
@@ -1044,23 +1044,23 @@
         <v>64</v>
       </c>
       <c r="C15" s="6" cm="1">
-        <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,C$3,C$2,$B15)/1000000,0)</f>
+        <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,C$3,C$2)/1000000,0)</f>
         <v>45687</v>
       </c>
       <c r="D15" s="6" cm="1">
-        <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,D$3,D$2,$B15)/1000000,0)</f>
+        <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,D$3,D$2)/1000000,0)</f>
         <v>48351</v>
       </c>
       <c r="E15" s="6" cm="1">
-        <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,E$3,E$2,$B15)/1000000,0)</f>
+        <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,E$3,E$2)/1000000,0)</f>
         <v>59531</v>
       </c>
       <c r="F15" s="6" cm="1">
-        <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,F$3,F$2,$B15)/1000000,0)</f>
+        <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,F$3,F$2)/1000000,0)</f>
         <v>55256</v>
       </c>
       <c r="G15" s="6" cm="1">
-        <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,G$3,G$2,$B15)/1000000,0)</f>
+        <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,G$3,G$2)/1000000,0)</f>
         <v>57411</v>
       </c>
     </row>
@@ -1080,23 +1080,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" cm="1">
-        <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B18)/1000000,0)</f>
+        <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,C$3,C$2)/1000000,0)</f>
         <v>20484</v>
       </c>
       <c r="D18" s="1" cm="1">
-        <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B18)/1000000,0)</f>
+        <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,D$3,D$2)/1000000,0)</f>
         <v>20289</v>
       </c>
       <c r="E18" s="1" cm="1">
-        <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B18)/1000000,0)</f>
+        <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,E$3,E$2)/1000000,0)</f>
         <v>25913</v>
       </c>
       <c r="F18" s="1" cm="1">
-        <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B18)/1000000,0)</f>
+        <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,F$3,F$2)/1000000,0)</f>
         <v>48844</v>
       </c>
       <c r="G18" s="1" cm="1">
-        <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B18)/1000000,0)</f>
+        <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,G$3,G$2)/1000000,0)</f>
         <v>38016</v>
       </c>
     </row>
@@ -1108,23 +1108,23 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" cm="1">
-        <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B19)/1000000,0)</f>
+        <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,C$3,C$2)/1000000,0)</f>
         <v>46671</v>
       </c>
       <c r="D19" s="1" cm="1">
-        <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B19)/1000000,0)</f>
+        <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,D$3,D$2)/1000000,0)</f>
         <v>53892</v>
       </c>
       <c r="E19" s="1" cm="1">
-        <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B19)/1000000,0)</f>
+        <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,E$3,E$2)/1000000,0)</f>
         <v>40388</v>
       </c>
       <c r="F19" s="1" cm="1">
-        <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B19)/1000000,0)</f>
+        <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,F$3,F$2)/1000000,0)</f>
         <v>51713</v>
       </c>
       <c r="G19" s="1" cm="1">
-        <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B19)/1000000,0)</f>
+        <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,G$3,G$2)/1000000,0)</f>
         <v>52927</v>
       </c>
     </row>
@@ -1136,23 +1136,23 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" cm="1">
-        <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B20)/1000000,0)</f>
+        <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,C$3,C$2)/1000000,0)</f>
         <v>15754</v>
       </c>
       <c r="D20" s="1" cm="1">
-        <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B20)/1000000,0)</f>
+        <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,D$3,D$2)/1000000,0)</f>
         <v>17874</v>
       </c>
       <c r="E20" s="1" cm="1">
-        <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B20)/1000000,0)</f>
+        <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,E$3,E$2)/1000000,0)</f>
         <v>23186</v>
       </c>
       <c r="F20" s="1" cm="1">
-        <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B20)/1000000,0)</f>
+        <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,F$3,F$2)/1000000,0)</f>
         <v>22926</v>
       </c>
       <c r="G20" s="1" cm="1">
-        <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B20)/1000000,0)</f>
+        <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,G$3,G$2)/1000000,0)</f>
         <v>16120</v>
       </c>
     </row>
@@ -1164,23 +1164,23 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" cm="1">
-        <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B21)/1000000,0)</f>
+        <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,C$3,C$2)/1000000,0)</f>
         <v>2132</v>
       </c>
       <c r="D21" s="1" cm="1">
-        <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B21)/1000000,0)</f>
+        <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,D$3,D$2)/1000000,0)</f>
         <v>4855</v>
       </c>
       <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B21)/1000000,0)</f>
+        <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,E$3,E$2)/1000000,0)</f>
         <v>3956</v>
       </c>
       <c r="F21" s="1" cm="1">
-        <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B21)/1000000,0)</f>
+        <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,F$3,F$2)/1000000,0)</f>
         <v>4106</v>
       </c>
       <c r="G21" s="1" cm="1">
-        <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B21)/1000000,0)</f>
+        <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,G$3,G$2)/1000000,0)</f>
         <v>4061</v>
       </c>
     </row>
@@ -1192,23 +1192,23 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" cm="1">
-        <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B22)/1000000,0)</f>
+        <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,C$3,C$2)/1000000,0)</f>
         <v>21828</v>
       </c>
       <c r="D22" s="1" cm="1">
-        <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B22)/1000000,0)</f>
+        <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,D$3,D$2)/1000000,0)</f>
         <v>31735</v>
       </c>
       <c r="E22" s="1" cm="1">
-        <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B22)/1000000,0)</f>
+        <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,E$3,E$2)/1000000,0)</f>
         <v>37896</v>
       </c>
       <c r="F22" s="1" cm="1">
-        <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B22)/1000000,0)</f>
+        <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,F$3,F$2)/1000000,0)</f>
         <v>35230</v>
       </c>
       <c r="G22" s="1" cm="1">
-        <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B22)/1000000,0)</f>
+        <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,G$3,G$2)/1000000,0)</f>
         <v>32589</v>
       </c>
     </row>
@@ -1220,23 +1220,23 @@
         <v>30</v>
       </c>
       <c r="C23" s="6" cm="1">
-        <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B23)/1000000,0)</f>
+        <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,C$3,C$2)/1000000,0)</f>
         <v>106869</v>
       </c>
       <c r="D23" s="6" cm="1">
-        <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B23)/1000000,0)</f>
+        <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,D$3,D$2)/1000000,0)</f>
         <v>128645</v>
       </c>
       <c r="E23" s="6" cm="1">
-        <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B23)/1000000,0)</f>
+        <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,E$3,E$2)/1000000,0)</f>
         <v>131339</v>
       </c>
       <c r="F23" s="6" cm="1">
-        <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B23)/1000000,0)</f>
+        <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,F$3,F$2)/1000000,0)</f>
         <v>162819</v>
       </c>
       <c r="G23" s="6" cm="1">
-        <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B23)/1000000,0)</f>
+        <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,G$3,G$2)/1000000,0)</f>
         <v>143713</v>
       </c>
     </row>
@@ -1248,23 +1248,23 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" cm="1">
-        <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B24)/1000000,0)</f>
+        <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,C$3,C$2)/1000000,0)</f>
         <v>27010</v>
       </c>
       <c r="D24" s="1" cm="1">
-        <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B24)/1000000,0)</f>
+        <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,D$3,D$2)/1000000,0)</f>
         <v>33783</v>
       </c>
       <c r="E24" s="1" cm="1">
-        <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B24)/1000000,0)</f>
+        <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,E$3,E$2)/1000000,0)</f>
         <v>41304</v>
       </c>
       <c r="F24" s="1" cm="1">
-        <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B24)/1000000,0)</f>
+        <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,F$3,F$2)/1000000,0)</f>
         <v>37378</v>
       </c>
       <c r="G24" s="1" cm="1">
-        <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B24)/1000000,0)</f>
+        <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,G$3,G$2)/1000000,0)</f>
         <v>36766</v>
       </c>
     </row>
@@ -1276,23 +1276,23 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" cm="1">
-        <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B25)/1000000,0)</f>
+        <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,C$3,C$2)/1000000,0)</f>
         <v>170430</v>
       </c>
       <c r="D25" s="1" cm="1">
-        <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B25)/1000000,0)</f>
+        <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,D$3,D$2)/1000000,0)</f>
         <v>194714</v>
       </c>
       <c r="E25" s="1" cm="1">
-        <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B25)/1000000,0)</f>
+        <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,E$3,E$2)/1000000,0)</f>
         <v>170799</v>
       </c>
       <c r="F25" s="1" cm="1">
-        <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B25)/1000000,0)</f>
+        <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,F$3,F$2)/1000000,0)</f>
         <v>105341</v>
       </c>
       <c r="G25" s="1" cm="1">
-        <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B25)/1000000,0)</f>
+        <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,G$3,G$2)/1000000,0)</f>
         <v>100887</v>
       </c>
     </row>
@@ -1304,23 +1304,23 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" cm="1">
-        <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B26)/1000000,0)</f>
+        <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,C$3,C$2)/1000000,0)</f>
         <v>17377</v>
       </c>
       <c r="D26" s="1" cm="1">
-        <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B26)/1000000,0)</f>
+        <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,D$3,D$2)/1000000,0)</f>
         <v>18177</v>
       </c>
       <c r="E26" s="1" cm="1">
-        <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B26)/1000000,0)</f>
+        <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,E$3,E$2)/1000000,0)</f>
         <v>22283</v>
       </c>
       <c r="F26" s="1" cm="1">
-        <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B26)/1000000,0)</f>
+        <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,F$3,F$2)/1000000,0)</f>
         <v>32978</v>
       </c>
       <c r="G26" s="1" cm="1">
-        <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B26)/1000000,0)</f>
+        <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,G$3,G$2)/1000000,0)</f>
         <v>42522</v>
       </c>
     </row>
@@ -1332,23 +1332,23 @@
         <v>49</v>
       </c>
       <c r="C27" s="6" cm="1">
-        <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B27)/1000000,0)</f>
+        <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,C$3,C$2)/1000000,0)</f>
         <v>214817</v>
       </c>
       <c r="D27" s="6" cm="1">
-        <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B27)/1000000,0)</f>
+        <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,D$3,D$2)/1000000,0)</f>
         <v>246674</v>
       </c>
       <c r="E27" s="6" cm="1">
-        <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B27)/1000000,0)</f>
+        <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,E$3,E$2)/1000000,0)</f>
         <v>234386</v>
       </c>
       <c r="F27" s="6" cm="1">
-        <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B27)/1000000,0)</f>
+        <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,F$3,F$2)/1000000,0)</f>
         <v>175697</v>
       </c>
       <c r="G27" s="6" cm="1">
-        <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B27)/1000000,0)</f>
+        <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,G$3,G$2)/1000000,0)</f>
         <v>180175</v>
       </c>
     </row>
@@ -1360,23 +1360,23 @@
         <v>50</v>
       </c>
       <c r="C28" s="6" cm="1">
-        <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B28)/1000000,0)</f>
+        <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,C$3,C$2)/1000000,0)</f>
         <v>321686</v>
       </c>
       <c r="D28" s="6" cm="1">
-        <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B28)/1000000,0)</f>
+        <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,D$3,D$2)/1000000,0)</f>
         <v>375319</v>
       </c>
       <c r="E28" s="6" cm="1">
-        <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B28)/1000000,0)</f>
+        <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,E$3,E$2)/1000000,0)</f>
         <v>365725</v>
       </c>
       <c r="F28" s="6" cm="1">
-        <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B28)/1000000,0)</f>
+        <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,F$3,F$2)/1000000,0)</f>
         <v>338516</v>
       </c>
       <c r="G28" s="6" cm="1">
-        <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B28)/1000000,0)</f>
+        <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,G$3,G$2)/1000000,0)</f>
         <v>323888</v>
       </c>
     </row>
@@ -1388,23 +1388,23 @@
         <v>51</v>
       </c>
       <c r="C29" s="1" cm="1">
-        <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B29)/1000000,0)</f>
+        <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,C$3,C$2)/1000000,0)</f>
         <v>59321</v>
       </c>
       <c r="D29" s="1" cm="1">
-        <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B29)/1000000,0)</f>
+        <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,D$3,D$2)/1000000,0)</f>
         <v>44242</v>
       </c>
       <c r="E29" s="1" cm="1">
-        <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B29)/1000000,0)</f>
+        <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,E$3,E$2)/1000000,0)</f>
         <v>55888</v>
       </c>
       <c r="F29" s="1" cm="1">
-        <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B29)/1000000,0)</f>
+        <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,F$3,F$2)/1000000,0)</f>
         <v>46236</v>
       </c>
       <c r="G29" s="1" cm="1">
-        <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B29)/1000000,0)</f>
+        <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,G$3,G$2)/1000000,0)</f>
         <v>42296</v>
       </c>
     </row>
@@ -1416,23 +1416,23 @@
         <v>56</v>
       </c>
       <c r="C30" s="1" cm="1">
-        <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B30)/1000000,0)</f>
+        <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,C$3,C$2)/1000000,0)</f>
         <v>11605</v>
       </c>
       <c r="D30" s="1" cm="1">
-        <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B30)/1000000,0)</f>
-        <v>109184</v>
+        <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,D$3,D$2)/1000000,0)</f>
+        <v>18473</v>
       </c>
       <c r="E30" s="1" cm="1">
-        <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B30)/1000000,0)</f>
+        <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,E$3,E$2)/1000000,0)</f>
         <v>20748</v>
       </c>
       <c r="F30" s="1" cm="1">
-        <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B30)/1000000,0)</f>
+        <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,F$3,F$2)/1000000,0)</f>
         <v>16240</v>
       </c>
       <c r="G30" s="1" cm="1">
-        <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B30)/1000000,0)</f>
+        <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,G$3,G$2)/1000000,0)</f>
         <v>13769</v>
       </c>
     </row>
@@ -1444,23 +1444,23 @@
         <v>60</v>
       </c>
       <c r="C31" s="1" cm="1">
-        <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B31)/1000000,0)</f>
+        <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,C$3,C$2)/1000000,0)</f>
         <v>8080</v>
       </c>
       <c r="D31" s="1" cm="1">
-        <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B31)/1000000,0)</f>
+        <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,D$3,D$2)/1000000,0)</f>
         <v>38099</v>
       </c>
       <c r="E31" s="1" cm="1">
-        <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B31)/1000000,0)</f>
+        <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,E$3,E$2)/1000000,0)</f>
         <v>39293</v>
       </c>
       <c r="F31" s="1" cm="1">
-        <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B31)/1000000,0)</f>
+        <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,F$3,F$2)/1000000,0)</f>
         <v>43242</v>
       </c>
       <c r="G31" s="1" cm="1">
-        <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B31)/1000000,0)</f>
+        <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,G$3,G$2)/1000000,0)</f>
         <v>49327</v>
       </c>
     </row>
@@ -1472,23 +1472,23 @@
         <v>66</v>
       </c>
       <c r="C32" s="6" cm="1">
-        <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B32)/1000000,0)</f>
+        <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,C$3,C$2)/1000000,0)</f>
         <v>79006</v>
       </c>
       <c r="D32" s="6" cm="1">
-        <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B32)/1000000,0)</f>
-        <v>191525</v>
+        <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,D$3,D$2)/1000000,0)</f>
+        <v>100814</v>
       </c>
       <c r="E32" s="6" cm="1">
-        <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B32)/1000000,0)</f>
+        <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,E$3,E$2)/1000000,0)</f>
         <v>115929</v>
       </c>
       <c r="F32" s="6" cm="1">
-        <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B32)/1000000,0)</f>
+        <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,F$3,F$2)/1000000,0)</f>
         <v>105718</v>
       </c>
       <c r="G32" s="6" cm="1">
-        <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B32)/1000000,0)</f>
+        <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,G$3,G$2)/1000000,0)</f>
         <v>105392</v>
       </c>
     </row>
@@ -1500,23 +1500,23 @@
         <v>67</v>
       </c>
       <c r="C33" s="1" cm="1">
-        <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B33)/1000000,0)</f>
+        <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,C$3,C$2)/1000000,0)</f>
         <v>75427</v>
       </c>
       <c r="D33" s="1" cm="1">
-        <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B33)/1000000,0)</f>
-        <v>6496</v>
+        <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,D$3,D$2)/1000000,0)</f>
+        <v>97207</v>
       </c>
       <c r="E33" s="1" cm="1">
-        <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B33)/1000000,0)</f>
+        <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,E$3,E$2)/1000000,0)</f>
         <v>93735</v>
       </c>
       <c r="F33" s="1" cm="1">
-        <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B33)/1000000,0)</f>
+        <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,F$3,F$2)/1000000,0)</f>
         <v>91807</v>
       </c>
       <c r="G33" s="1" cm="1">
-        <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B33)/1000000,0)</f>
+        <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,G$3,G$2)/1000000,0)</f>
         <v>98667</v>
       </c>
     </row>
@@ -1528,23 +1528,23 @@
         <v>70</v>
       </c>
       <c r="C34" s="1" cm="1">
-        <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B34)/1000000,0)</f>
+        <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,C$3,C$2)/1000000,0)</f>
         <v>39004</v>
       </c>
       <c r="D34" s="1" cm="1">
-        <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B34)/1000000,0)</f>
+        <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,D$3,D$2)/1000000,0)</f>
         <v>43251</v>
       </c>
       <c r="E34" s="1" cm="1">
-        <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B34)/1000000,0)</f>
+        <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,E$3,E$2)/1000000,0)</f>
         <v>48914</v>
       </c>
       <c r="F34" s="1" cm="1">
-        <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B34)/1000000,0)</f>
+        <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,F$3,F$2)/1000000,0)</f>
         <v>50503</v>
       </c>
       <c r="G34" s="1" cm="1">
-        <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B34)/1000000,0)</f>
+        <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,G$3,G$2)/1000000,0)</f>
         <v>54490</v>
       </c>
     </row>
@@ -1556,23 +1556,23 @@
         <v>81</v>
       </c>
       <c r="C35" s="6" cm="1">
-        <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B35)/1000000,0)</f>
+        <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,C$3,C$2)/1000000,0)</f>
         <v>114431</v>
       </c>
       <c r="D35" s="6" cm="1">
-        <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B35)/1000000,0)</f>
-        <v>49747</v>
+        <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,D$3,D$2)/1000000,0)</f>
+        <v>140458</v>
       </c>
       <c r="E35" s="6" cm="1">
-        <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B35)/1000000,0)</f>
+        <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,E$3,E$2)/1000000,0)</f>
         <v>142649</v>
       </c>
       <c r="F35" s="6" cm="1">
-        <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B35)/1000000,0)</f>
+        <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,F$3,F$2)/1000000,0)</f>
         <v>142310</v>
       </c>
       <c r="G35" s="6" cm="1">
-        <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B35)/1000000,0)</f>
+        <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,G$3,G$2)/1000000,0)</f>
         <v>153157</v>
       </c>
     </row>
@@ -1584,23 +1584,23 @@
         <v>82</v>
       </c>
       <c r="C36" s="6" cm="1">
-        <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B36)/1000000,0)</f>
+        <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,C$3,C$2)/1000000,0)</f>
         <v>193437</v>
       </c>
       <c r="D36" s="6" cm="1">
-        <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B36)/1000000,0)</f>
+        <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,D$3,D$2)/1000000,0)</f>
         <v>241272</v>
       </c>
       <c r="E36" s="6" cm="1">
-        <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B36)/1000000,0)</f>
+        <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,E$3,E$2)/1000000,0)</f>
         <v>258578</v>
       </c>
       <c r="F36" s="6" cm="1">
-        <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B36)/1000000,0)</f>
+        <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,F$3,F$2)/1000000,0)</f>
         <v>248028</v>
       </c>
       <c r="G36" s="6" cm="1">
-        <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B36)/1000000,0)</f>
+        <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,G$3,G$2)/1000000,0)</f>
         <v>258549</v>
       </c>
     </row>
@@ -1612,23 +1612,23 @@
         <v>83</v>
       </c>
       <c r="C37" s="1" cm="1">
-        <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B37)/1000000,0)</f>
+        <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D37" s="1" cm="1">
-        <f t="array" ref="D37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B37)/1000000,0)</f>
+        <f t="array" ref="D37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E37" s="1" cm="1">
-        <f t="array" ref="E37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B37)/1000000,0)</f>
+        <f t="array" ref="E37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1" cm="1">
-        <f t="array" ref="F37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B37)/1000000,0)</f>
+        <f t="array" ref="F37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="1" cm="1">
-        <f t="array" ref="G37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B37)/1000000,0)</f>
+        <f t="array" ref="G37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1640,23 +1640,23 @@
         <v>84</v>
       </c>
       <c r="C38" s="1" cm="1">
-        <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B38)/1000000,0)</f>
+        <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,C$3,C$2)/1000000,0)</f>
         <v>31251</v>
       </c>
       <c r="D38" s="1" cm="1">
-        <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B38)/1000000,0)</f>
+        <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,D$3,D$2)/1000000,0)</f>
         <v>35867</v>
       </c>
       <c r="E38" s="1" cm="1">
-        <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B38)/1000000,0)</f>
+        <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,E$3,E$2)/1000000,0)</f>
         <v>40201</v>
       </c>
       <c r="F38" s="1" cm="1">
-        <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B38)/1000000,0)</f>
+        <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,F$3,F$2)/1000000,0)</f>
         <v>45174</v>
       </c>
       <c r="G38" s="1" cm="1">
-        <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B38)/1000000,0)</f>
+        <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,G$3,G$2)/1000000,0)</f>
         <v>50779</v>
       </c>
     </row>
@@ -1668,23 +1668,23 @@
         <v>88</v>
       </c>
       <c r="C39" s="1" cm="1">
-        <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B39)/1000000,0)</f>
+        <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D39" s="1" cm="1">
-        <f t="array" ref="D39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B39)/1000000,0)</f>
+        <f t="array" ref="D39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E39" s="1" cm="1">
-        <f t="array" ref="E39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B39)/1000000,0)</f>
+        <f t="array" ref="E39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="1" cm="1">
-        <f t="array" ref="F39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B39)/1000000,0)</f>
+        <f t="array" ref="F39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="1" cm="1">
-        <f t="array" ref="G39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B39)/1000000,0)</f>
+        <f t="array" ref="G39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1696,23 +1696,23 @@
         <v>89</v>
       </c>
       <c r="C40" s="1" cm="1">
-        <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B40)/1000000,0)</f>
+        <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,C$3,C$2)/1000000,0)</f>
         <v>96364</v>
       </c>
       <c r="D40" s="1" cm="1">
-        <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B40)/1000000,0)</f>
+        <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,D$3,D$2)/1000000,0)</f>
         <v>98330</v>
       </c>
       <c r="E40" s="1" cm="1">
-        <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B40)/1000000,0)</f>
+        <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,E$3,E$2)/1000000,0)</f>
         <v>70400</v>
       </c>
       <c r="F40" s="1" cm="1">
-        <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B40)/1000000,0)</f>
+        <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,F$3,F$2)/1000000,0)</f>
         <v>45898</v>
       </c>
       <c r="G40" s="1" cm="1">
-        <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B40)/1000000,0)</f>
+        <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,G$3,G$2)/1000000,0)</f>
         <v>14966</v>
       </c>
     </row>
@@ -1724,23 +1724,23 @@
         <v>90</v>
       </c>
       <c r="C41" s="1" cm="1">
-        <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B41)/1000000,0)</f>
+        <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,C$3,C$2)/1000000,0)</f>
         <v>634</v>
       </c>
       <c r="D41" s="1" cm="1">
-        <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B41)/1000000,0)</f>
+        <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,D$3,D$2)/1000000,0)</f>
         <v>-150</v>
       </c>
       <c r="E41" s="1" cm="1">
-        <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B41)/1000000,0)</f>
+        <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,E$3,E$2)/1000000,0)</f>
         <v>-3454</v>
       </c>
       <c r="F41" s="1" cm="1">
-        <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B41)/1000000,0)</f>
+        <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,F$3,F$2)/1000000,0)</f>
         <v>-584</v>
       </c>
       <c r="G41" s="1" cm="1">
-        <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B41)/1000000,0)</f>
+        <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,G$3,G$2)/1000000,0)</f>
         <v>-406</v>
       </c>
     </row>
@@ -1752,23 +1752,23 @@
         <v>92</v>
       </c>
       <c r="C42" s="1" cm="1">
-        <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B42)/1000000,0)</f>
+        <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D42" s="1" cm="1">
-        <f t="array" ref="D42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B42)/1000000,0)</f>
+        <f t="array" ref="D42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1" cm="1">
-        <f t="array" ref="E42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B42)/1000000,0)</f>
+        <f t="array" ref="E42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="1" cm="1">
-        <f t="array" ref="F42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B42)/1000000,0)</f>
+        <f t="array" ref="F42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="1" cm="1">
-        <f t="array" ref="G42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B42)/1000000,0)</f>
+        <f t="array" ref="G42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1780,23 +1780,23 @@
         <v>93</v>
       </c>
       <c r="C43" s="6" cm="1">
-        <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B43)/1000000,0)</f>
+        <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,C$3,C$2)/1000000,0)</f>
         <v>128249</v>
       </c>
       <c r="D43" s="6" cm="1">
-        <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B43)/1000000,0)</f>
+        <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,D$3,D$2)/1000000,0)</f>
         <v>134047</v>
       </c>
       <c r="E43" s="6" cm="1">
-        <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B43)/1000000,0)</f>
+        <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,E$3,E$2)/1000000,0)</f>
         <v>107147</v>
       </c>
       <c r="F43" s="6" cm="1">
-        <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B43)/1000000,0)</f>
+        <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,F$3,F$2)/1000000,0)</f>
         <v>90488</v>
       </c>
       <c r="G43" s="6" cm="1">
-        <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B43)/1000000,0)</f>
+        <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,G$3,G$2)/1000000,0)</f>
         <v>65339</v>
       </c>
     </row>
@@ -1808,23 +1808,23 @@
         <v>94</v>
       </c>
       <c r="C44" s="6" cm="1">
-        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,C$3,C$2,$B44)/1000000,0)</f>
+        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,C$3,C$2)/1000000,0)</f>
         <v>321686</v>
       </c>
       <c r="D44" s="6" cm="1">
-        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,D$3,D$2,$B44)/1000000,0)</f>
+        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,D$3,D$2)/1000000,0)</f>
         <v>375319</v>
       </c>
       <c r="E44" s="6" cm="1">
-        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,E$3,E$2,$B44)/1000000,0)</f>
+        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,E$3,E$2)/1000000,0)</f>
         <v>365725</v>
       </c>
       <c r="F44" s="6" cm="1">
-        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,F$3,F$2,$B44)/1000000,0)</f>
+        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,F$3,F$2)/1000000,0)</f>
         <v>338516</v>
       </c>
       <c r="G44" s="6" cm="1">
-        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,G$3,G$2,$B44)/1000000,0)</f>
+        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,G$3,G$2)/1000000,0)</f>
         <v>323888</v>
       </c>
     </row>
@@ -1844,23 +1844,23 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" cm="1">
-        <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B47)/1000000,0)</f>
+        <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,C$3,C$2)/1000000,0)</f>
         <v>45687</v>
       </c>
       <c r="D47" s="1" cm="1">
-        <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B47)/1000000,0)</f>
+        <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,D$3,D$2)/1000000,0)</f>
         <v>48351</v>
       </c>
       <c r="E47" s="1" cm="1">
-        <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B47)/1000000,0)</f>
+        <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,E$3,E$2)/1000000,0)</f>
         <v>59531</v>
       </c>
       <c r="F47" s="1" cm="1">
-        <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B47)/1000000,0)</f>
+        <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,F$3,F$2)/1000000,0)</f>
         <v>55256</v>
       </c>
       <c r="G47" s="1" cm="1">
-        <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B47)/1000000,0)</f>
+        <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,G$3,G$2)/1000000,0)</f>
         <v>57411</v>
       </c>
     </row>
@@ -1872,23 +1872,23 @@
         <v>13</v>
       </c>
       <c r="C48" s="1" cm="1">
-        <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B48)/1000000,0)</f>
+        <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D48" s="1" cm="1">
-        <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B48)/1000000,0)</f>
+        <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E48" s="1" cm="1">
-        <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B48)/1000000,0)</f>
+        <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F48" s="1" cm="1">
-        <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B48)/1000000,0)</f>
+        <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="1" cm="1">
-        <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B48)/1000000,0)</f>
+        <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1900,23 +1900,23 @@
         <v>14</v>
       </c>
       <c r="C49" s="1" cm="1">
-        <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B49)/1000000,0)</f>
+        <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,C$3,C$2)/1000000,0)</f>
         <v>10505</v>
       </c>
       <c r="D49" s="1" cm="1">
-        <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B49)/1000000,0)</f>
+        <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,D$3,D$2)/1000000,0)</f>
         <v>10157</v>
       </c>
       <c r="E49" s="1" cm="1">
-        <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B49)/1000000,0)</f>
+        <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,E$3,E$2)/1000000,0)</f>
         <v>10903</v>
       </c>
       <c r="F49" s="1" cm="1">
-        <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B49)/1000000,0)</f>
+        <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,F$3,F$2)/1000000,0)</f>
         <v>12547</v>
       </c>
       <c r="G49" s="1" cm="1">
-        <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B49)/1000000,0)</f>
+        <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,G$3,G$2)/1000000,0)</f>
         <v>11056</v>
       </c>
     </row>
@@ -1928,24 +1928,24 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" cm="1">
-        <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B50)/1000000,0)</f>
+        <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,C$3,C$2)/1000000,0)</f>
         <v>9148</v>
       </c>
       <c r="D50" s="1" cm="1">
-        <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B50)/1000000,0)</f>
+        <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,D$3,D$2)/1000000,0)</f>
         <v>10806</v>
       </c>
       <c r="E50" s="1" cm="1">
-        <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B50)/1000000,0)</f>
+        <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,E$3,E$2)/1000000,0)</f>
         <v>-27250</v>
       </c>
       <c r="F50" s="1" cm="1">
-        <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B50)/1000000,0)</f>
-        <v>5728</v>
+        <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,F$3,F$2)/1000000,0)</f>
+        <v>5076</v>
       </c>
       <c r="G50" s="1" cm="1">
-        <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B50)/1000000,0)</f>
-        <v>6614</v>
+        <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,G$3,G$2)/1000000,0)</f>
+        <v>6517</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1956,23 +1956,23 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" cm="1">
-        <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B51)/1000000,0)</f>
+        <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D51" s="1" cm="1">
-        <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B51)/1000000,0)</f>
+        <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E51" s="1" cm="1">
-        <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B51)/1000000,0)</f>
+        <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1" cm="1">
-        <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B51)/1000000,0)</f>
+        <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="1" cm="1">
-        <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B51)/1000000,0)</f>
+        <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1984,23 +1984,23 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" cm="1">
-        <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B52)/1000000,0)</f>
+        <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D52" s="1" cm="1">
-        <f t="array" ref="D52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B52)/1000000,0)</f>
+        <f t="array" ref="D52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E52" s="1" cm="1">
-        <f t="array" ref="E52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B52)/1000000,0)</f>
+        <f t="array" ref="E52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F52" s="1" cm="1">
-        <f t="array" ref="F52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B52)/1000000,0)</f>
+        <f t="array" ref="F52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="1" cm="1">
-        <f t="array" ref="G52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B52)/1000000,0)</f>
+        <f t="array" ref="G52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2012,23 +2012,23 @@
         <v>18</v>
       </c>
       <c r="C53" s="1" cm="1">
-        <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B53)/1000000,0)</f>
+        <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D53" s="1" cm="1">
-        <f t="array" ref="D53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B53)/1000000,0)</f>
+        <f t="array" ref="D53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E53" s="1" cm="1">
-        <f t="array" ref="E53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B53)/1000000,0)</f>
+        <f t="array" ref="E53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F53" s="1" cm="1">
-        <f t="array" ref="F53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B53)/1000000,0)</f>
+        <f t="array" ref="F53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G53" s="1" cm="1">
-        <f t="array" ref="G53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B53)/1000000,0)</f>
+        <f t="array" ref="G53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
         <v>19</v>
       </c>
       <c r="C54" s="1" cm="1">
-        <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B54)/1000000,0)</f>
+        <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,C$3,C$2)/1000000,0)</f>
         <v>891</v>
       </c>
       <c r="D54" s="1" cm="1">
-        <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B54)/1000000,0)</f>
+        <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,D$3,D$2)/1000000,0)</f>
         <v>-5089</v>
       </c>
       <c r="E54" s="1" cm="1">
-        <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B54)/1000000,0)</f>
+        <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,E$3,E$2)/1000000,0)</f>
         <v>34250</v>
       </c>
       <c r="F54" s="1" cm="1">
-        <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B54)/1000000,0)</f>
-        <v>-4140</v>
+        <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,F$3,F$2)/1000000,0)</f>
+        <v>-3488</v>
       </c>
       <c r="G54" s="1" cm="1">
-        <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B54)/1000000,0)</f>
-        <v>5593</v>
+        <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,G$3,G$2)/1000000,0)</f>
+        <v>5690</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -2068,23 +2068,23 @@
         <v>20</v>
       </c>
       <c r="C55" s="1" cm="1">
-        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B55)/1000000,0)</f>
+        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D55" s="1" cm="1">
-        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B55)/1000000,0)</f>
+        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1" cm="1">
-        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B55)/1000000,0)</f>
+        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1" cm="1">
-        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B55)/1000000,0)</f>
+        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="1" cm="1">
-        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B55)/1000000,0)</f>
+        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2096,23 +2096,23 @@
         <v>21</v>
       </c>
       <c r="C56" s="1" cm="1">
-        <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B56)/1000000,0)</f>
+        <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D56" s="1" cm="1">
-        <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B56)/1000000,0)</f>
+        <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E56" s="1" cm="1">
-        <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B56)/1000000,0)</f>
+        <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F56" s="1" cm="1">
-        <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B56)/1000000,0)</f>
+        <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="1" cm="1">
-        <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B56)/1000000,0)</f>
+        <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2124,23 +2124,23 @@
         <v>22</v>
       </c>
       <c r="C57" s="1" cm="1">
-        <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B57)/1000000,0)</f>
+        <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D57" s="1" cm="1">
-        <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B57)/1000000,0)</f>
+        <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E57" s="1" cm="1">
-        <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B57)/1000000,0)</f>
+        <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F57" s="1" cm="1">
-        <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B57)/1000000,0)</f>
+        <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="1" cm="1">
-        <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B57)/1000000,0)</f>
+        <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2152,23 +2152,23 @@
         <v>23</v>
       </c>
       <c r="C58" s="1" cm="1">
-        <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B58)/1000000,0)</f>
+        <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D58" s="1" cm="1">
-        <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B58)/1000000,0)</f>
+        <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E58" s="1" cm="1">
-        <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B58)/1000000,0)</f>
+        <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F58" s="1" cm="1">
-        <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B58)/1000000,0)</f>
+        <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G58" s="1" cm="1">
-        <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B58)/1000000,0)</f>
+        <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2180,23 +2180,23 @@
         <v>24</v>
       </c>
       <c r="C59" s="1" cm="1">
-        <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B59)/1000000,0)</f>
+        <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D59" s="1" cm="1">
-        <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B59)/1000000,0)</f>
+        <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E59" s="1" cm="1">
-        <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B59)/1000000,0)</f>
+        <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F59" s="1" cm="1">
-        <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B59)/1000000,0)</f>
+        <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G59" s="1" cm="1">
-        <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B59)/1000000,0)</f>
+        <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2208,23 +2208,23 @@
         <v>25</v>
       </c>
       <c r="C60" s="6" cm="1">
-        <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B60)/1000000,0)</f>
+        <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,C$3,C$2)/1000000,0)</f>
         <v>66231</v>
       </c>
       <c r="D60" s="6" cm="1">
-        <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B60)/1000000,0)</f>
+        <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,D$3,D$2)/1000000,0)</f>
         <v>64225</v>
       </c>
       <c r="E60" s="6" cm="1">
-        <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B60)/1000000,0)</f>
+        <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,E$3,E$2)/1000000,0)</f>
         <v>77434</v>
       </c>
       <c r="F60" s="6" cm="1">
-        <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B60)/1000000,0)</f>
+        <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,F$3,F$2)/1000000,0)</f>
         <v>69391</v>
       </c>
       <c r="G60" s="6" cm="1">
-        <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B60)/1000000,0)</f>
+        <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,G$3,G$2)/1000000,0)</f>
         <v>80674</v>
       </c>
     </row>
@@ -2236,23 +2236,23 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" cm="1">
-        <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B61)/1000000,0)</f>
+        <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,C$3,C$2)/1000000,0)</f>
         <v>-12734</v>
       </c>
       <c r="D61" s="1" cm="1">
-        <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B61)/1000000,0)</f>
+        <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,D$3,D$2)/1000000,0)</f>
         <v>-12451</v>
       </c>
       <c r="E61" s="1" cm="1">
-        <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B61)/1000000,0)</f>
+        <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,E$3,E$2)/1000000,0)</f>
         <v>-13313</v>
       </c>
       <c r="F61" s="1" cm="1">
-        <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B61)/1000000,0)</f>
+        <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,F$3,F$2)/1000000,0)</f>
         <v>-10495</v>
       </c>
       <c r="G61" s="1" cm="1">
-        <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B61)/1000000,0)</f>
+        <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,G$3,G$2)/1000000,0)</f>
         <v>-7309</v>
       </c>
     </row>
@@ -2264,23 +2264,23 @@
         <v>34</v>
       </c>
       <c r="C62" s="1" cm="1">
-        <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B62)/1000000,0)</f>
+        <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,C$3,C$2)/1000000,0)</f>
         <v>-32022</v>
       </c>
       <c r="D62" s="1" cm="1">
-        <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B62)/1000000,0)</f>
+        <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,D$3,D$2)/1000000,0)</f>
         <v>-33542</v>
       </c>
       <c r="E62" s="1" cm="1">
-        <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B62)/1000000,0)</f>
+        <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,E$3,E$2)/1000000,0)</f>
         <v>30845</v>
       </c>
       <c r="F62" s="1" cm="1">
-        <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B62)/1000000,0)</f>
+        <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,F$3,F$2)/1000000,0)</f>
         <v>58093</v>
       </c>
       <c r="G62" s="1" cm="1">
-        <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B62)/1000000,0)</f>
+        <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,G$3,G$2)/1000000,0)</f>
         <v>5335</v>
       </c>
     </row>
@@ -2292,23 +2292,23 @@
         <v>37</v>
       </c>
       <c r="C63" s="1" cm="1">
-        <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B63)/1000000,0)</f>
+        <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,C$3,C$2)/1000000,0)</f>
         <v>-297</v>
       </c>
       <c r="D63" s="1" cm="1">
-        <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B63)/1000000,0)</f>
+        <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,D$3,D$2)/1000000,0)</f>
         <v>-329</v>
       </c>
       <c r="E63" s="1" cm="1">
-        <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B63)/1000000,0)</f>
+        <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,E$3,E$2)/1000000,0)</f>
         <v>-721</v>
       </c>
       <c r="F63" s="1" cm="1">
-        <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B63)/1000000,0)</f>
+        <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,F$3,F$2)/1000000,0)</f>
         <v>-624</v>
       </c>
       <c r="G63" s="1" cm="1">
-        <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B63)/1000000,0)</f>
+        <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,G$3,G$2)/1000000,0)</f>
         <v>-1524</v>
       </c>
     </row>
@@ -2320,23 +2320,23 @@
         <v>42</v>
       </c>
       <c r="C64" s="1" cm="1">
-        <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B64)/1000000,0)</f>
+        <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,C$3,C$2)/1000000,0)</f>
         <v>-924</v>
       </c>
       <c r="D64" s="1" cm="1">
-        <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B64)/1000000,0)</f>
+        <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,D$3,D$2)/1000000,0)</f>
         <v>-124</v>
       </c>
       <c r="E64" s="1" cm="1">
-        <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B64)/1000000,0)</f>
+        <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,E$3,E$2)/1000000,0)</f>
         <v>-745</v>
       </c>
       <c r="F64" s="1" cm="1">
-        <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B64)/1000000,0)</f>
+        <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,F$3,F$2)/1000000,0)</f>
         <v>-1078</v>
       </c>
       <c r="G64" s="1" cm="1">
-        <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B64)/1000000,0)</f>
+        <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,G$3,G$2)/1000000,0)</f>
         <v>-791</v>
       </c>
     </row>
@@ -2348,23 +2348,23 @@
         <v>43</v>
       </c>
       <c r="C65" s="1" cm="1">
-        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B65)/1000000,0)</f>
+        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D65" s="1" cm="1">
-        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B65)/1000000,0)</f>
+        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E65" s="1" cm="1">
-        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B65)/1000000,0)</f>
+        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F65" s="1" cm="1">
-        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B65)/1000000,0)</f>
+        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="1" cm="1">
-        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B65)/1000000,0)</f>
+        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2376,23 +2376,23 @@
         <v>44</v>
       </c>
       <c r="C66" s="6" cm="1">
-        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B66)/1000000,0)</f>
+        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$3,C$2)/1000000,0)</f>
         <v>-45977</v>
       </c>
       <c r="D66" s="6" cm="1">
-        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B66)/1000000,0)</f>
+        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$3,D$2)/1000000,0)</f>
         <v>-46446</v>
       </c>
       <c r="E66" s="6" cm="1">
-        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B66)/1000000,0)</f>
+        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$3,E$2)/1000000,0)</f>
         <v>16066</v>
       </c>
       <c r="F66" s="6" cm="1">
-        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B66)/1000000,0)</f>
+        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$3,F$2)/1000000,0)</f>
         <v>45896</v>
       </c>
       <c r="G66" s="6" cm="1">
-        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B66)/1000000,0)</f>
+        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$3,G$2)/1000000,0)</f>
         <v>-4289</v>
       </c>
     </row>
@@ -2404,23 +2404,23 @@
         <v>45</v>
       </c>
       <c r="C67" s="1" cm="1">
-        <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B67)/1000000,0)</f>
+        <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,C$3,C$2)/1000000,0)</f>
         <v>-12150</v>
       </c>
       <c r="D67" s="1" cm="1">
-        <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B67)/1000000,0)</f>
+        <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,D$3,D$2)/1000000,0)</f>
         <v>-12769</v>
       </c>
       <c r="E67" s="1" cm="1">
-        <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B67)/1000000,0)</f>
+        <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,E$3,E$2)/1000000,0)</f>
         <v>-13712</v>
       </c>
       <c r="F67" s="1" cm="1">
-        <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B67)/1000000,0)</f>
+        <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,F$3,F$2)/1000000,0)</f>
         <v>-14119</v>
       </c>
       <c r="G67" s="1" cm="1">
-        <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B67)/1000000,0)</f>
+        <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,G$3,G$2)/1000000,0)</f>
         <v>-14081</v>
       </c>
     </row>
@@ -2432,23 +2432,23 @@
         <v>46</v>
       </c>
       <c r="C68" s="1" cm="1">
-        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B68)/1000000,0)</f>
+        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,C$3,C$2)/1000000,0)</f>
         <v>22057</v>
       </c>
       <c r="D68" s="1" cm="1">
-        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B68)/1000000,0)</f>
+        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,D$3,D$2)/1000000,0)</f>
         <v>29014</v>
       </c>
       <c r="E68" s="1" cm="1">
-        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B68)/1000000,0)</f>
+        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,E$3,E$2)/1000000,0)</f>
         <v>432</v>
       </c>
       <c r="F68" s="1" cm="1">
-        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B68)/1000000,0)</f>
+        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,F$3,F$2)/1000000,0)</f>
         <v>-7819</v>
       </c>
       <c r="G68" s="1" cm="1">
-        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B68)/1000000,0)</f>
+        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,G$3,G$2)/1000000,0)</f>
         <v>2499</v>
       </c>
     </row>
@@ -2460,23 +2460,23 @@
         <v>51</v>
       </c>
       <c r="C69" s="1" cm="1">
-        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B69)/1000000,0)</f>
+        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,C$3,C$2)/1000000,0)</f>
         <v>-29227</v>
       </c>
       <c r="D69" s="1" cm="1">
-        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B69)/1000000,0)</f>
+        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,D$3,D$2)/1000000,0)</f>
         <v>-32345</v>
       </c>
       <c r="E69" s="1" cm="1">
-        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B69)/1000000,0)</f>
+        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,E$3,E$2)/1000000,0)</f>
         <v>-72069</v>
       </c>
       <c r="F69" s="1" cm="1">
-        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B69)/1000000,0)</f>
+        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,F$3,F$2)/1000000,0)</f>
         <v>-66116</v>
       </c>
       <c r="G69" s="1" cm="1">
-        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B69)/1000000,0)</f>
+        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,G$3,G$2)/1000000,0)</f>
         <v>-71478</v>
       </c>
     </row>
@@ -2488,23 +2488,23 @@
         <v>54</v>
       </c>
       <c r="C70" s="1" cm="1">
-        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B70)/1000000,0)</f>
+        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,C$3,C$2)/1000000,0)</f>
         <v>-1570</v>
       </c>
       <c r="D70" s="1" cm="1">
-        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B70)/1000000,0)</f>
+        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,D$3,D$2)/1000000,0)</f>
         <v>-1874</v>
       </c>
       <c r="E70" s="1" cm="1">
-        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B70)/1000000,0)</f>
+        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,E$3,E$2)/1000000,0)</f>
         <v>-2527</v>
       </c>
       <c r="F70" s="1" cm="1">
-        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B70)/1000000,0)</f>
+        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,F$3,F$2)/1000000,0)</f>
         <v>-2922</v>
       </c>
       <c r="G70" s="1" cm="1">
-        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B70)/1000000,0)</f>
+        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,G$3,G$2)/1000000,0)</f>
         <v>-3760</v>
       </c>
     </row>
@@ -2516,23 +2516,23 @@
         <v>55</v>
       </c>
       <c r="C71" s="1" cm="1">
-        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B71)/1000000,0)</f>
+        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D71" s="1" cm="1">
-        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B71)/1000000,0)</f>
+        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E71" s="1" cm="1">
-        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B71)/1000000,0)</f>
+        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F71" s="1" cm="1">
-        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B71)/1000000,0)</f>
+        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1" cm="1">
-        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B71)/1000000,0)</f>
+        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2544,23 +2544,23 @@
         <v>56</v>
       </c>
       <c r="C72" s="6" cm="1">
-        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B72)/1000000,0)</f>
+        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,C$3,C$2)/1000000,0)</f>
         <v>-20890</v>
       </c>
       <c r="D72" s="6" cm="1">
-        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B72)/1000000,0)</f>
+        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,D$3,D$2)/1000000,0)</f>
         <v>-17974</v>
       </c>
       <c r="E72" s="6" cm="1">
-        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B72)/1000000,0)</f>
+        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,E$3,E$2)/1000000,0)</f>
         <v>-87876</v>
       </c>
       <c r="F72" s="6" cm="1">
-        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B72)/1000000,0)</f>
+        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,F$3,F$2)/1000000,0)</f>
         <v>-90976</v>
       </c>
       <c r="G72" s="6" cm="1">
-        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B72)/1000000,0)</f>
+        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,G$3,G$2)/1000000,0)</f>
         <v>-86820</v>
       </c>
     </row>
@@ -2572,23 +2572,23 @@
         <v>58</v>
       </c>
       <c r="C73" s="1" cm="1">
-        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B73)/1000000,0)</f>
+        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D73" s="1" cm="1">
-        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B73)/1000000,0)</f>
+        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1" cm="1">
-        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B73)/1000000,0)</f>
+        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F73" s="1" cm="1">
-        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B73)/1000000,0)</f>
+        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G73" s="1" cm="1">
-        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B73)/1000000,0)</f>
+        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2600,23 +2600,23 @@
         <v>60</v>
       </c>
       <c r="C74" s="1" cm="1">
-        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B74)/1000000,0)</f>
+        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,C$3,C$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D74" s="1" cm="1">
-        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B74)/1000000,0)</f>
+        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,D$3,D$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1" cm="1">
-        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B74)/1000000,0)</f>
+        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,E$3,E$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F74" s="1" cm="1">
-        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B74)/1000000,0)</f>
+        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,F$3,F$2)/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G74" s="1" cm="1">
-        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B74)/1000000,0)</f>
+        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,G$3,G$2)/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2628,23 +2628,23 @@
         <v>61</v>
       </c>
       <c r="C75" s="6" cm="1">
-        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,C$3,C$2,$B75)/1000000,0)</f>
+        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,C$3,C$2)/1000000,0)</f>
         <v>-636</v>
       </c>
       <c r="D75" s="6" cm="1">
-        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,D$3,D$2,$B75)/1000000,0)</f>
+        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,D$3,D$2)/1000000,0)</f>
         <v>-195</v>
       </c>
       <c r="E75" s="6" cm="1">
-        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,E$3,E$2,$B75)/1000000,0)</f>
+        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,E$3,E$2)/1000000,0)</f>
         <v>5624</v>
       </c>
       <c r="F75" s="6" cm="1">
-        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,F$3,F$2,$B75)/1000000,0)</f>
+        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,F$3,F$2)/1000000,0)</f>
         <v>24311</v>
       </c>
       <c r="G75" s="6" cm="1">
-        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,G$3,G$2,$B75)/1000000,0)</f>
+        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,G$3,G$2)/1000000,0)</f>
         <v>-10435</v>
       </c>
     </row>

--- a/Examples/Financials.xlsx
+++ b/Examples/Financials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9906A-4265-47BF-85F6-B312C2B90DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38999058-428B-44FC-8ACC-ACB9E11801D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,220 +61,220 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost of revenue</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Selling, General &amp; Administrative</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Operating Income (Loss)</t>
+  </si>
+  <si>
+    <t>Non-Operating Income (Loss)</t>
+  </si>
+  <si>
+    <t>Pretax Income (Loss)</t>
+  </si>
+  <si>
+    <t>Income Tax (Expense) Benefit, net</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Cash &amp; Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Short Term Investments</t>
+  </si>
+  <si>
+    <t>Accounts &amp; Notes Receivable</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Other Short Term Assets</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Property, Plant &amp; Equipment, Net</t>
+  </si>
+  <si>
+    <t>Long Term Investments &amp; Receivables</t>
+  </si>
+  <si>
+    <t>Other Long Term Assets</t>
+  </si>
+  <si>
+    <t>Total Noncurrent Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Payables &amp; Accruals</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Other Short Term Liabilities</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Long Term Debt</t>
+  </si>
+  <si>
+    <t>Other Long Term Liabilities</t>
+  </si>
+  <si>
+    <t>Total Noncurrent Liabilities</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Preferred Equity</t>
+  </si>
+  <si>
+    <t>Share Capital &amp; Additional Paid-In Capital</t>
+  </si>
+  <si>
+    <t>Treasury Stock</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Other Equity</t>
+  </si>
+  <si>
+    <t>Minority Interest</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Total Liabilities &amp; Equity</t>
+  </si>
+  <si>
+    <t>Net Income/Starting Line</t>
+  </si>
+  <si>
+    <t>Other Adjustments</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; Amortization</t>
+  </si>
+  <si>
+    <t>Non-Cash Items</t>
+  </si>
+  <si>
+    <t>Stock-Based Compensation</t>
+  </si>
+  <si>
+    <t>Deferred Income Taxes</t>
+  </si>
+  <si>
+    <t>Other Non-Cash Adjustments</t>
+  </si>
+  <si>
+    <t>Change in Working Capital</t>
+  </si>
+  <si>
+    <t>(Increase) Decrease in Accounts Receivable</t>
+  </si>
+  <si>
+    <t>(Increase) Decrease in Inventories</t>
+  </si>
+  <si>
+    <t>Increase (Decrease) in Accounts Payable</t>
+  </si>
+  <si>
+    <t>Increase (Decrease) in Other</t>
+  </si>
+  <si>
+    <t>Net Cash From Discontinued Operations (operating)</t>
+  </si>
+  <si>
+    <t>Cash from Operating Activities</t>
+  </si>
+  <si>
+    <t>Change in Fixed Assets &amp; Intangibles</t>
+  </si>
+  <si>
+    <t>Net Change in Long Term Investment</t>
+  </si>
+  <si>
+    <t>Net Cash From Acquisitions &amp; Divestitures</t>
+  </si>
+  <si>
+    <t>Other Investing Activities</t>
+  </si>
+  <si>
+    <t>Net Cash From Discontinued Operations (investing)</t>
+  </si>
+  <si>
+    <t>Cash from Investing Activities</t>
+  </si>
+  <si>
+    <t>Dividends Paid</t>
+  </si>
+  <si>
+    <t>Cash From (Repayment of) Debt</t>
+  </si>
+  <si>
+    <t>Cash From (Repurchase of) Equity</t>
+  </si>
+  <si>
+    <t>Other Financing Activities</t>
+  </si>
+  <si>
+    <t>Net Cash From Discontinued Operations (financing)</t>
+  </si>
+  <si>
+    <t>Cash from Financing Activities</t>
+  </si>
+  <si>
+    <t>Change in Cash from Disc. Operations and Other</t>
+  </si>
+  <si>
+    <t>Effect of Foreign Exchange Rates</t>
+  </si>
+  <si>
+    <t>Net Changes in Cash</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
     <t>AAPL</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Cost of revenue</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>Selling, General &amp; Administrative</t>
-  </si>
-  <si>
-    <t>Research &amp; Development</t>
-  </si>
-  <si>
-    <t>Operating Income (Loss)</t>
-  </si>
-  <si>
-    <t>Non-Operating Income (Loss)</t>
-  </si>
-  <si>
-    <t>Pretax Income (Loss)</t>
-  </si>
-  <si>
-    <t>Income Tax (Expense) Benefit, net</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>Cash &amp; Cash Equivalents</t>
-  </si>
-  <si>
-    <t>Short Term Investments</t>
-  </si>
-  <si>
-    <t>Accounts &amp; Notes Receivable</t>
-  </si>
-  <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Other Short Term Assets</t>
-  </si>
-  <si>
-    <t>Total Current Assets</t>
-  </si>
-  <si>
-    <t>Property, Plant &amp; Equipment, Net</t>
-  </si>
-  <si>
-    <t>Long Term Investments &amp; Receivables</t>
-  </si>
-  <si>
-    <t>Other Long Term Assets</t>
-  </si>
-  <si>
-    <t>Total Noncurrent Assets</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Payables &amp; Accruals</t>
-  </si>
-  <si>
-    <t>Short Term Debt</t>
-  </si>
-  <si>
-    <t>Other Short Term Liabilities</t>
-  </si>
-  <si>
-    <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Long Term Debt</t>
-  </si>
-  <si>
-    <t>Other Long Term Liabilities</t>
-  </si>
-  <si>
-    <t>Total Noncurrent Liabilities</t>
-  </si>
-  <si>
-    <t>Total Liabilities</t>
-  </si>
-  <si>
-    <t>Preferred Equity</t>
-  </si>
-  <si>
-    <t>Share Capital &amp; Additional Paid-In Capital</t>
-  </si>
-  <si>
-    <t>Treasury Stock</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
-  </si>
-  <si>
-    <t>Other Equity</t>
-  </si>
-  <si>
-    <t>Minority Interest</t>
-  </si>
-  <si>
-    <t>Total Equity</t>
-  </si>
-  <si>
-    <t>Total Liabilities &amp; Equity</t>
-  </si>
-  <si>
-    <t>Net Income/Starting Line</t>
-  </si>
-  <si>
-    <t>Other Adjustments</t>
-  </si>
-  <si>
-    <t>Depreciation &amp; Amortization</t>
-  </si>
-  <si>
-    <t>Non-Cash Items</t>
-  </si>
-  <si>
-    <t>Stock-Based Compensation</t>
-  </si>
-  <si>
-    <t>Deferred Income Taxes</t>
-  </si>
-  <si>
-    <t>Other Non-Cash Adjustments</t>
-  </si>
-  <si>
-    <t>Change in Working Capital</t>
-  </si>
-  <si>
-    <t>(Increase) Decrease in Accounts Receivable</t>
-  </si>
-  <si>
-    <t>(Increase) Decrease in Inventories</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Accounts Payable</t>
-  </si>
-  <si>
-    <t>Increase (Decrease) in Other</t>
-  </si>
-  <si>
-    <t>Net Cash From Discontinued Operations (operating)</t>
-  </si>
-  <si>
-    <t>Cash from Operating Activities</t>
-  </si>
-  <si>
-    <t>Change in Fixed Assets &amp; Intangibles</t>
-  </si>
-  <si>
-    <t>Net Change in Long Term Investment</t>
-  </si>
-  <si>
-    <t>Net Cash From Acquisitions &amp; Divestitures</t>
-  </si>
-  <si>
-    <t>Other Investing Activities</t>
-  </si>
-  <si>
-    <t>Net Cash From Discontinued Operations (investing)</t>
-  </si>
-  <si>
-    <t>Cash from Investing Activities</t>
-  </si>
-  <si>
-    <t>Dividends Paid</t>
-  </si>
-  <si>
-    <t>Cash From (Repayment of) Debt</t>
-  </si>
-  <si>
-    <t>Cash From (Repurchase of) Equity</t>
-  </si>
-  <si>
-    <t>Other Financing Activities</t>
-  </si>
-  <si>
-    <t>Net Cash From Discontinued Operations (financing)</t>
-  </si>
-  <si>
-    <t>Cash from Financing Activities</t>
-  </si>
-  <si>
-    <t>Change in Cash from Disc. Operations and Other</t>
-  </si>
-  <si>
-    <t>Effect of Foreign Exchange Rates</t>
-  </si>
-  <si>
-    <t>Net Changes in Cash</t>
-  </si>
-  <si>
-    <t>FY</t>
   </si>
 </sst>
 </file>
@@ -706,28 +706,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C2" s="5">
         <f t="shared" ref="C2:E2" si="0">IF(C3="FY",D2-1,IF(C3="Q4",D2-1,D2))</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" si="0"/>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" si="0"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F2" s="5">
         <f>IF(F3="FY",G2-1,IF(F3="Q4",G2-1,G2))</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G2" s="5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -748,320 +748,320 @@
         <v>FY</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$3,C$2)/1000000,0)</f>
-        <v>215639</v>
+        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>229234</v>
       </c>
       <c r="D5" s="1" cm="1">
-        <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,D$3,D$2)/1000000,0)</f>
-        <v>229234</v>
+        <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>265595</v>
       </c>
       <c r="E5" s="1" cm="1">
-        <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,E$3,E$2)/1000000,0)</f>
-        <v>265595</v>
+        <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>260174</v>
       </c>
       <c r="F5" s="1" cm="1">
-        <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,F$3,F$2)/1000000,0)</f>
-        <v>260174</v>
+        <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>274515</v>
       </c>
       <c r="G5" s="1" cm="1">
-        <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,G$3,G$2)/1000000,0)</f>
-        <v>274515</v>
+        <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>365817</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>14</v>
       </c>
       <c r="C6" s="1" cm="1">
-        <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,C$3,C$2)/1000000,0)</f>
-        <v>-131376</v>
+        <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-141048</v>
       </c>
       <c r="D6" s="1" cm="1">
-        <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,D$3,D$2)/1000000,0)</f>
-        <v>-141048</v>
+        <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-163756</v>
       </c>
       <c r="E6" s="1" cm="1">
-        <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,E$3,E$2)/1000000,0)</f>
-        <v>-163756</v>
+        <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-161782</v>
       </c>
       <c r="F6" s="1" cm="1">
-        <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,F$3,F$2)/1000000,0)</f>
-        <v>-161782</v>
+        <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-169559</v>
       </c>
       <c r="G6" s="1" cm="1">
-        <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,G$3,G$2)/1000000,0)</f>
-        <v>-169559</v>
+        <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-212981</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>18</v>
       </c>
       <c r="C7" s="6" cm="1">
-        <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,C$3,C$2)/1000000,0)</f>
-        <v>84263</v>
+        <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>88186</v>
       </c>
       <c r="D7" s="6" cm="1">
-        <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,D$3,D$2)/1000000,0)</f>
-        <v>88186</v>
+        <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>101839</v>
       </c>
       <c r="E7" s="6" cm="1">
-        <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,E$3,E$2)/1000000,0)</f>
-        <v>101839</v>
+        <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>98392</v>
       </c>
       <c r="F7" s="6" cm="1">
-        <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,F$3,F$2)/1000000,0)</f>
-        <v>98392</v>
+        <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>104956</v>
       </c>
       <c r="G7" s="6" cm="1">
-        <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,G$3,G$2)/1000000,0)</f>
-        <v>104956</v>
+        <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>152836</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" s="1" cm="1">
-        <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,C$3,C$2)/1000000,0)</f>
-        <v>-24239</v>
+        <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-26842</v>
       </c>
       <c r="D8" s="1" cm="1">
-        <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,D$3,D$2)/1000000,0)</f>
-        <v>-26842</v>
+        <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-30941</v>
       </c>
       <c r="E8" s="1" cm="1">
-        <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,E$3,E$2)/1000000,0)</f>
-        <v>-30941</v>
+        <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-34462</v>
       </c>
       <c r="F8" s="1" cm="1">
-        <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,F$3,F$2)/1000000,0)</f>
-        <v>-34462</v>
+        <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-38668</v>
       </c>
       <c r="G8" s="1" cm="1">
-        <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,G$3,G$2)/1000000,0)</f>
-        <v>-38668</v>
+        <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-43887</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>21</v>
       </c>
       <c r="C9" s="1" cm="1">
-        <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,C$3,C$2)/1000000,0)</f>
-        <v>-14194</v>
+        <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-15261</v>
       </c>
       <c r="D9" s="1" cm="1">
-        <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,D$3,D$2)/1000000,0)</f>
-        <v>-15261</v>
+        <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-16705</v>
       </c>
       <c r="E9" s="1" cm="1">
-        <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,E$3,E$2)/1000000,0)</f>
-        <v>-16705</v>
+        <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-18245</v>
       </c>
       <c r="F9" s="1" cm="1">
-        <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,F$3,F$2)/1000000,0)</f>
-        <v>-18245</v>
+        <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-19916</v>
       </c>
       <c r="G9" s="1" cm="1">
-        <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,G$3,G$2)/1000000,0)</f>
-        <v>-19916</v>
+        <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-21973</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,C$3,C$2)/1000000,0)</f>
-        <v>-10045</v>
+        <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-11581</v>
       </c>
       <c r="D10" s="1" cm="1">
-        <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,D$3,D$2)/1000000,0)</f>
-        <v>-11581</v>
+        <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-14236</v>
       </c>
       <c r="E10" s="1" cm="1">
-        <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,E$3,E$2)/1000000,0)</f>
-        <v>-14236</v>
+        <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-16217</v>
       </c>
       <c r="F10" s="1" cm="1">
-        <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,F$3,F$2)/1000000,0)</f>
-        <v>-16217</v>
+        <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-18752</v>
       </c>
       <c r="G10" s="1" cm="1">
-        <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,G$3,G$2)/1000000,0)</f>
-        <v>-18752</v>
+        <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-21914</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>28</v>
       </c>
       <c r="C11" s="6" cm="1">
-        <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,C$3,C$2)/1000000,0)</f>
-        <v>60024</v>
+        <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>61344</v>
       </c>
       <c r="D11" s="6" cm="1">
-        <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,D$3,D$2)/1000000,0)</f>
-        <v>61344</v>
+        <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>70898</v>
       </c>
       <c r="E11" s="6" cm="1">
-        <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,E$3,E$2)/1000000,0)</f>
-        <v>70898</v>
+        <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>63930</v>
       </c>
       <c r="F11" s="6" cm="1">
-        <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,F$3,F$2)/1000000,0)</f>
-        <v>63930</v>
+        <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>66288</v>
       </c>
       <c r="G11" s="6" cm="1">
-        <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,G$3,G$2)/1000000,0)</f>
-        <v>66288</v>
+        <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>108949</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>36</v>
       </c>
       <c r="C12" s="1" cm="1">
-        <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,C$3,C$2)/1000000,0)</f>
-        <v>1348</v>
+        <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>2745</v>
       </c>
       <c r="D12" s="1" cm="1">
-        <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,D$3,D$2)/1000000,0)</f>
-        <v>2745</v>
+        <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>2005</v>
       </c>
       <c r="E12" s="1" cm="1">
-        <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,E$3,E$2)/1000000,0)</f>
-        <v>2005</v>
+        <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>1807</v>
       </c>
       <c r="F12" s="1" cm="1">
-        <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,F$3,F$2)/1000000,0)</f>
-        <v>1807</v>
+        <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>803</v>
       </c>
       <c r="G12" s="1" cm="1">
-        <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,G$3,G$2)/1000000,0)</f>
-        <v>803</v>
+        <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>37</v>
       </c>
       <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,C$3,C$2)/1000000,0)</f>
-        <v>61372</v>
+        <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>64089</v>
       </c>
       <c r="D13" s="1" cm="1">
-        <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,D$3,D$2)/1000000,0)</f>
-        <v>64089</v>
+        <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>72903</v>
       </c>
       <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,E$3,E$2)/1000000,0)</f>
-        <v>72903</v>
+        <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>65737</v>
       </c>
       <c r="F13" s="1" cm="1">
-        <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,F$3,F$2)/1000000,0)</f>
-        <v>65737</v>
+        <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>67091</v>
       </c>
       <c r="G13" s="1" cm="1">
-        <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,G$3,G$2)/1000000,0)</f>
-        <v>67091</v>
+        <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>109207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>53</v>
       </c>
       <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,C$3,C$2)/1000000,0)</f>
-        <v>-15685</v>
+        <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-15738</v>
       </c>
       <c r="D14" s="1" cm="1">
-        <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,D$3,D$2)/1000000,0)</f>
-        <v>-15738</v>
+        <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-13372</v>
       </c>
       <c r="E14" s="1" cm="1">
-        <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,E$3,E$2)/1000000,0)</f>
-        <v>-13372</v>
+        <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-10481</v>
       </c>
       <c r="F14" s="1" cm="1">
-        <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,F$3,F$2)/1000000,0)</f>
-        <v>-10481</v>
+        <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-9680</v>
       </c>
       <c r="G14" s="1" cm="1">
-        <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,G$3,G$2)/1000000,0)</f>
-        <v>-9680</v>
+        <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-14527</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>64</v>
       </c>
       <c r="C15" s="6" cm="1">
-        <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,C$3,C$2)/1000000,0)</f>
-        <v>45687</v>
+        <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>48351</v>
       </c>
       <c r="D15" s="6" cm="1">
-        <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,D$3,D$2)/1000000,0)</f>
-        <v>48351</v>
+        <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>59531</v>
       </c>
       <c r="E15" s="6" cm="1">
-        <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,E$3,E$2)/1000000,0)</f>
-        <v>59531</v>
+        <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>55256</v>
       </c>
       <c r="F15" s="6" cm="1">
-        <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,F$3,F$2)/1000000,0)</f>
-        <v>55256</v>
+        <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>57411</v>
       </c>
       <c r="G15" s="6" cm="1">
-        <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,G$3,G$2)/1000000,0)</f>
-        <v>57411</v>
+        <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>94680</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1069,763 +1069,763 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>11</v>
       </c>
       <c r="C18" s="1" cm="1">
-        <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,C$3,C$2)/1000000,0)</f>
-        <v>20484</v>
+        <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>20289</v>
       </c>
       <c r="D18" s="1" cm="1">
-        <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,D$3,D$2)/1000000,0)</f>
-        <v>20289</v>
+        <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>25913</v>
       </c>
       <c r="E18" s="1" cm="1">
-        <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,E$3,E$2)/1000000,0)</f>
-        <v>25913</v>
+        <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>48844</v>
       </c>
       <c r="F18" s="1" cm="1">
-        <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,F$3,F$2)/1000000,0)</f>
-        <v>48844</v>
+        <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>38016</v>
       </c>
       <c r="G18" s="1" cm="1">
-        <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,G$3,G$2)/1000000,0)</f>
-        <v>38016</v>
+        <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>34940</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
       <c r="C19" s="1" cm="1">
-        <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,C$3,C$2)/1000000,0)</f>
-        <v>46671</v>
+        <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>53892</v>
       </c>
       <c r="D19" s="1" cm="1">
-        <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,D$3,D$2)/1000000,0)</f>
-        <v>53892</v>
+        <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>40388</v>
       </c>
       <c r="E19" s="1" cm="1">
-        <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,E$3,E$2)/1000000,0)</f>
-        <v>40388</v>
+        <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>51713</v>
       </c>
       <c r="F19" s="1" cm="1">
-        <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,F$3,F$2)/1000000,0)</f>
-        <v>51713</v>
+        <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>52927</v>
       </c>
       <c r="G19" s="1" cm="1">
-        <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,G$3,G$2)/1000000,0)</f>
-        <v>52927</v>
+        <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>27699</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>13</v>
       </c>
       <c r="C20" s="1" cm="1">
-        <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,C$3,C$2)/1000000,0)</f>
-        <v>15754</v>
+        <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>17874</v>
       </c>
       <c r="D20" s="1" cm="1">
-        <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,D$3,D$2)/1000000,0)</f>
-        <v>17874</v>
+        <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>23186</v>
       </c>
       <c r="E20" s="1" cm="1">
-        <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,E$3,E$2)/1000000,0)</f>
-        <v>23186</v>
+        <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>22926</v>
       </c>
       <c r="F20" s="1" cm="1">
-        <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,F$3,F$2)/1000000,0)</f>
-        <v>22926</v>
+        <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>16120</v>
       </c>
       <c r="G20" s="1" cm="1">
-        <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,G$3,G$2)/1000000,0)</f>
-        <v>16120</v>
+        <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>26278</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" s="1" cm="1">
-        <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,C$3,C$2)/1000000,0)</f>
-        <v>2132</v>
+        <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>4855</v>
       </c>
       <c r="D21" s="1" cm="1">
-        <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,D$3,D$2)/1000000,0)</f>
-        <v>4855</v>
+        <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>3956</v>
       </c>
       <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,E$3,E$2)/1000000,0)</f>
-        <v>3956</v>
+        <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>4106</v>
       </c>
       <c r="F21" s="1" cm="1">
-        <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,F$3,F$2)/1000000,0)</f>
-        <v>4106</v>
+        <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>4061</v>
       </c>
       <c r="G21" s="1" cm="1">
-        <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,G$3,G$2)/1000000,0)</f>
-        <v>4061</v>
+        <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>6580</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" s="1" cm="1">
-        <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,C$3,C$2)/1000000,0)</f>
-        <v>21828</v>
+        <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>31735</v>
       </c>
       <c r="D22" s="1" cm="1">
-        <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,D$3,D$2)/1000000,0)</f>
-        <v>31735</v>
+        <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>37896</v>
       </c>
       <c r="E22" s="1" cm="1">
-        <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,E$3,E$2)/1000000,0)</f>
-        <v>37896</v>
+        <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>35230</v>
       </c>
       <c r="F22" s="1" cm="1">
-        <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,F$3,F$2)/1000000,0)</f>
-        <v>35230</v>
+        <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>32589</v>
       </c>
       <c r="G22" s="1" cm="1">
-        <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,G$3,G$2)/1000000,0)</f>
-        <v>32589</v>
+        <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>39339</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
       <c r="C23" s="6" cm="1">
-        <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,C$3,C$2)/1000000,0)</f>
-        <v>106869</v>
+        <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>128645</v>
       </c>
       <c r="D23" s="6" cm="1">
-        <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,D$3,D$2)/1000000,0)</f>
-        <v>128645</v>
+        <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>131339</v>
       </c>
       <c r="E23" s="6" cm="1">
-        <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,E$3,E$2)/1000000,0)</f>
-        <v>131339</v>
+        <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>162819</v>
       </c>
       <c r="F23" s="6" cm="1">
-        <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,F$3,F$2)/1000000,0)</f>
-        <v>162819</v>
+        <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>143713</v>
       </c>
       <c r="G23" s="6" cm="1">
-        <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,G$3,G$2)/1000000,0)</f>
-        <v>143713</v>
+        <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>134836</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>31</v>
       </c>
       <c r="C24" s="1" cm="1">
-        <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,C$3,C$2)/1000000,0)</f>
-        <v>27010</v>
+        <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>33783</v>
       </c>
       <c r="D24" s="1" cm="1">
-        <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,D$3,D$2)/1000000,0)</f>
-        <v>33783</v>
+        <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>41304</v>
       </c>
       <c r="E24" s="1" cm="1">
-        <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,E$3,E$2)/1000000,0)</f>
-        <v>41304</v>
+        <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>37378</v>
       </c>
       <c r="F24" s="1" cm="1">
-        <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,F$3,F$2)/1000000,0)</f>
-        <v>37378</v>
+        <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>36766</v>
       </c>
       <c r="G24" s="1" cm="1">
-        <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,G$3,G$2)/1000000,0)</f>
-        <v>36766</v>
+        <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>39440</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>34</v>
       </c>
       <c r="C25" s="1" cm="1">
-        <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,C$3,C$2)/1000000,0)</f>
-        <v>170430</v>
+        <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>194714</v>
       </c>
       <c r="D25" s="1" cm="1">
-        <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,D$3,D$2)/1000000,0)</f>
-        <v>194714</v>
+        <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>170799</v>
       </c>
       <c r="E25" s="1" cm="1">
-        <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,E$3,E$2)/1000000,0)</f>
-        <v>170799</v>
+        <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>105341</v>
       </c>
       <c r="F25" s="1" cm="1">
-        <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,F$3,F$2)/1000000,0)</f>
-        <v>105341</v>
+        <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>100887</v>
       </c>
       <c r="G25" s="1" cm="1">
-        <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,G$3,G$2)/1000000,0)</f>
-        <v>100887</v>
+        <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>127877</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>38</v>
       </c>
       <c r="C26" s="1" cm="1">
-        <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,C$3,C$2)/1000000,0)</f>
-        <v>17377</v>
+        <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>18177</v>
       </c>
       <c r="D26" s="1" cm="1">
-        <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,D$3,D$2)/1000000,0)</f>
-        <v>18177</v>
+        <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>22283</v>
       </c>
       <c r="E26" s="1" cm="1">
-        <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,E$3,E$2)/1000000,0)</f>
-        <v>22283</v>
+        <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>32978</v>
       </c>
       <c r="F26" s="1" cm="1">
-        <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,F$3,F$2)/1000000,0)</f>
-        <v>32978</v>
+        <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>42522</v>
       </c>
       <c r="G26" s="1" cm="1">
-        <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,G$3,G$2)/1000000,0)</f>
-        <v>42522</v>
+        <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>48849</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>49</v>
       </c>
       <c r="C27" s="6" cm="1">
-        <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,C$3,C$2)/1000000,0)</f>
-        <v>214817</v>
+        <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>246674</v>
       </c>
       <c r="D27" s="6" cm="1">
-        <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,D$3,D$2)/1000000,0)</f>
-        <v>246674</v>
+        <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>234386</v>
       </c>
       <c r="E27" s="6" cm="1">
-        <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,E$3,E$2)/1000000,0)</f>
-        <v>234386</v>
+        <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>175697</v>
       </c>
       <c r="F27" s="6" cm="1">
-        <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,F$3,F$2)/1000000,0)</f>
-        <v>175697</v>
+        <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>180175</v>
       </c>
       <c r="G27" s="6" cm="1">
-        <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,G$3,G$2)/1000000,0)</f>
-        <v>180175</v>
+        <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>216166</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
       <c r="C28" s="6" cm="1">
-        <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,C$3,C$2)/1000000,0)</f>
-        <v>321686</v>
+        <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>375319</v>
       </c>
       <c r="D28" s="6" cm="1">
-        <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,D$3,D$2)/1000000,0)</f>
-        <v>375319</v>
+        <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>365725</v>
       </c>
       <c r="E28" s="6" cm="1">
-        <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,E$3,E$2)/1000000,0)</f>
-        <v>365725</v>
+        <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>338516</v>
       </c>
       <c r="F28" s="6" cm="1">
-        <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,F$3,F$2)/1000000,0)</f>
-        <v>338516</v>
+        <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>323888</v>
       </c>
       <c r="G28" s="6" cm="1">
-        <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,G$3,G$2)/1000000,0)</f>
-        <v>323888</v>
+        <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>351002</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>51</v>
       </c>
       <c r="C29" s="1" cm="1">
-        <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,C$3,C$2)/1000000,0)</f>
-        <v>59321</v>
+        <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>44242</v>
       </c>
       <c r="D29" s="1" cm="1">
-        <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,D$3,D$2)/1000000,0)</f>
-        <v>44242</v>
+        <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>55888</v>
       </c>
       <c r="E29" s="1" cm="1">
-        <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,E$3,E$2)/1000000,0)</f>
-        <v>55888</v>
+        <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>46236</v>
       </c>
       <c r="F29" s="1" cm="1">
-        <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,F$3,F$2)/1000000,0)</f>
-        <v>46236</v>
+        <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>42296</v>
       </c>
       <c r="G29" s="1" cm="1">
-        <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,G$3,G$2)/1000000,0)</f>
-        <v>42296</v>
+        <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>54763</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>56</v>
       </c>
       <c r="C30" s="1" cm="1">
-        <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,C$3,C$2)/1000000,0)</f>
-        <v>11605</v>
+        <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>18473</v>
       </c>
       <c r="D30" s="1" cm="1">
-        <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,D$3,D$2)/1000000,0)</f>
-        <v>18473</v>
+        <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>20748</v>
       </c>
       <c r="E30" s="1" cm="1">
-        <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,E$3,E$2)/1000000,0)</f>
-        <v>20748</v>
+        <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>16240</v>
       </c>
       <c r="F30" s="1" cm="1">
-        <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,F$3,F$2)/1000000,0)</f>
-        <v>16240</v>
+        <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>13769</v>
       </c>
       <c r="G30" s="1" cm="1">
-        <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,G$3,G$2)/1000000,0)</f>
-        <v>13769</v>
+        <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>15613</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>60</v>
       </c>
       <c r="C31" s="1" cm="1">
-        <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,C$3,C$2)/1000000,0)</f>
-        <v>8080</v>
+        <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>38099</v>
       </c>
       <c r="D31" s="1" cm="1">
-        <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,D$3,D$2)/1000000,0)</f>
-        <v>38099</v>
+        <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>39293</v>
       </c>
       <c r="E31" s="1" cm="1">
-        <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,E$3,E$2)/1000000,0)</f>
-        <v>39293</v>
+        <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>43242</v>
       </c>
       <c r="F31" s="1" cm="1">
-        <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,F$3,F$2)/1000000,0)</f>
-        <v>43242</v>
+        <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>49327</v>
       </c>
       <c r="G31" s="1" cm="1">
-        <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,G$3,G$2)/1000000,0)</f>
-        <v>49327</v>
+        <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>55105</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>66</v>
       </c>
       <c r="C32" s="6" cm="1">
-        <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,C$3,C$2)/1000000,0)</f>
-        <v>79006</v>
+        <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>100814</v>
       </c>
       <c r="D32" s="6" cm="1">
-        <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,D$3,D$2)/1000000,0)</f>
-        <v>100814</v>
+        <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>115929</v>
       </c>
       <c r="E32" s="6" cm="1">
-        <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,E$3,E$2)/1000000,0)</f>
-        <v>115929</v>
+        <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>105718</v>
       </c>
       <c r="F32" s="6" cm="1">
-        <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,F$3,F$2)/1000000,0)</f>
-        <v>105718</v>
+        <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>105392</v>
       </c>
       <c r="G32" s="6" cm="1">
-        <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,G$3,G$2)/1000000,0)</f>
-        <v>105392</v>
+        <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>125481</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>67</v>
       </c>
       <c r="C33" s="1" cm="1">
-        <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,C$3,C$2)/1000000,0)</f>
-        <v>75427</v>
+        <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>97207</v>
       </c>
       <c r="D33" s="1" cm="1">
-        <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,D$3,D$2)/1000000,0)</f>
-        <v>97207</v>
+        <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>93735</v>
       </c>
       <c r="E33" s="1" cm="1">
-        <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,E$3,E$2)/1000000,0)</f>
-        <v>93735</v>
+        <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>91807</v>
       </c>
       <c r="F33" s="1" cm="1">
-        <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,F$3,F$2)/1000000,0)</f>
-        <v>91807</v>
+        <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>98667</v>
       </c>
       <c r="G33" s="1" cm="1">
-        <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,G$3,G$2)/1000000,0)</f>
-        <v>98667</v>
+        <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>109106</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>70</v>
       </c>
       <c r="C34" s="1" cm="1">
-        <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,C$3,C$2)/1000000,0)</f>
-        <v>39004</v>
+        <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>43251</v>
       </c>
       <c r="D34" s="1" cm="1">
-        <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,D$3,D$2)/1000000,0)</f>
-        <v>43251</v>
+        <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>48914</v>
       </c>
       <c r="E34" s="1" cm="1">
-        <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,E$3,E$2)/1000000,0)</f>
-        <v>48914</v>
+        <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>50503</v>
       </c>
       <c r="F34" s="1" cm="1">
-        <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,F$3,F$2)/1000000,0)</f>
-        <v>50503</v>
+        <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>54490</v>
       </c>
       <c r="G34" s="1" cm="1">
-        <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,G$3,G$2)/1000000,0)</f>
-        <v>54490</v>
+        <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>53325</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>81</v>
       </c>
       <c r="C35" s="6" cm="1">
-        <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,C$3,C$2)/1000000,0)</f>
-        <v>114431</v>
+        <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>140458</v>
       </c>
       <c r="D35" s="6" cm="1">
-        <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,D$3,D$2)/1000000,0)</f>
-        <v>140458</v>
+        <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>142649</v>
       </c>
       <c r="E35" s="6" cm="1">
-        <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,E$3,E$2)/1000000,0)</f>
-        <v>142649</v>
+        <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>142310</v>
       </c>
       <c r="F35" s="6" cm="1">
-        <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,F$3,F$2)/1000000,0)</f>
-        <v>142310</v>
+        <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>153157</v>
       </c>
       <c r="G35" s="6" cm="1">
-        <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,G$3,G$2)/1000000,0)</f>
-        <v>153157</v>
+        <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>162431</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>82</v>
       </c>
       <c r="C36" s="6" cm="1">
-        <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,C$3,C$2)/1000000,0)</f>
-        <v>193437</v>
+        <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>241272</v>
       </c>
       <c r="D36" s="6" cm="1">
-        <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,D$3,D$2)/1000000,0)</f>
-        <v>241272</v>
+        <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>258578</v>
       </c>
       <c r="E36" s="6" cm="1">
-        <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,E$3,E$2)/1000000,0)</f>
-        <v>258578</v>
+        <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>248028</v>
       </c>
       <c r="F36" s="6" cm="1">
-        <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,F$3,F$2)/1000000,0)</f>
-        <v>248028</v>
+        <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>258549</v>
       </c>
       <c r="G36" s="6" cm="1">
-        <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,G$3,G$2)/1000000,0)</f>
-        <v>258549</v>
+        <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>287912</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>83</v>
       </c>
       <c r="C37" s="1" cm="1">
-        <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D37" s="1" cm="1">
-        <f t="array" ref="D37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E37" s="1" cm="1">
-        <f t="array" ref="E37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1" cm="1">
-        <f t="array" ref="F37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="1" cm="1">
-        <f t="array" ref="G37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>84</v>
       </c>
       <c r="C38" s="1" cm="1">
-        <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,C$3,C$2)/1000000,0)</f>
-        <v>31251</v>
+        <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>35867</v>
       </c>
       <c r="D38" s="1" cm="1">
-        <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,D$3,D$2)/1000000,0)</f>
-        <v>35867</v>
+        <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>40201</v>
       </c>
       <c r="E38" s="1" cm="1">
-        <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,E$3,E$2)/1000000,0)</f>
-        <v>40201</v>
+        <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>45174</v>
       </c>
       <c r="F38" s="1" cm="1">
-        <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,F$3,F$2)/1000000,0)</f>
-        <v>45174</v>
+        <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>50779</v>
       </c>
       <c r="G38" s="1" cm="1">
-        <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,G$3,G$2)/1000000,0)</f>
-        <v>50779</v>
+        <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>57365</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>88</v>
       </c>
       <c r="C39" s="1" cm="1">
-        <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D39" s="1" cm="1">
-        <f t="array" ref="D39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E39" s="1" cm="1">
-        <f t="array" ref="E39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="1" cm="1">
-        <f t="array" ref="F39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="1" cm="1">
-        <f t="array" ref="G39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>89</v>
       </c>
       <c r="C40" s="1" cm="1">
-        <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,C$3,C$2)/1000000,0)</f>
-        <v>96364</v>
+        <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>98330</v>
       </c>
       <c r="D40" s="1" cm="1">
-        <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,D$3,D$2)/1000000,0)</f>
-        <v>98330</v>
+        <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>70400</v>
       </c>
       <c r="E40" s="1" cm="1">
-        <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,E$3,E$2)/1000000,0)</f>
-        <v>70400</v>
+        <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>45898</v>
       </c>
       <c r="F40" s="1" cm="1">
-        <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,F$3,F$2)/1000000,0)</f>
-        <v>45898</v>
+        <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>14966</v>
       </c>
       <c r="G40" s="1" cm="1">
-        <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,G$3,G$2)/1000000,0)</f>
-        <v>14966</v>
+        <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>5562</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>90</v>
       </c>
       <c r="C41" s="1" cm="1">
-        <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,C$3,C$2)/1000000,0)</f>
-        <v>634</v>
+        <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-150</v>
       </c>
       <c r="D41" s="1" cm="1">
-        <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,D$3,D$2)/1000000,0)</f>
-        <v>-150</v>
+        <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-3454</v>
       </c>
       <c r="E41" s="1" cm="1">
-        <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,E$3,E$2)/1000000,0)</f>
-        <v>-3454</v>
+        <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-584</v>
       </c>
       <c r="F41" s="1" cm="1">
-        <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,F$3,F$2)/1000000,0)</f>
-        <v>-584</v>
+        <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-406</v>
       </c>
       <c r="G41" s="1" cm="1">
-        <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,G$3,G$2)/1000000,0)</f>
-        <v>-406</v>
+        <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>92</v>
       </c>
       <c r="C42" s="1" cm="1">
-        <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D42" s="1" cm="1">
-        <f t="array" ref="D42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1" cm="1">
-        <f t="array" ref="E42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="1" cm="1">
-        <f t="array" ref="F42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="1" cm="1">
-        <f t="array" ref="G42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>93</v>
       </c>
       <c r="C43" s="6" cm="1">
-        <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,C$3,C$2)/1000000,0)</f>
-        <v>128249</v>
+        <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>134047</v>
       </c>
       <c r="D43" s="6" cm="1">
-        <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,D$3,D$2)/1000000,0)</f>
-        <v>134047</v>
+        <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>107147</v>
       </c>
       <c r="E43" s="6" cm="1">
-        <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,E$3,E$2)/1000000,0)</f>
-        <v>107147</v>
+        <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>90488</v>
       </c>
       <c r="F43" s="6" cm="1">
-        <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,F$3,F$2)/1000000,0)</f>
-        <v>90488</v>
+        <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>65339</v>
       </c>
       <c r="G43" s="6" cm="1">
-        <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,G$3,G$2)/1000000,0)</f>
-        <v>65339</v>
+        <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>63090</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>94</v>
       </c>
       <c r="C44" s="6" cm="1">
-        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,C$3,C$2)/1000000,0)</f>
-        <v>321686</v>
+        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>375319</v>
       </c>
       <c r="D44" s="6" cm="1">
-        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,D$3,D$2)/1000000,0)</f>
-        <v>375319</v>
+        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>365725</v>
       </c>
       <c r="E44" s="6" cm="1">
-        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,E$3,E$2)/1000000,0)</f>
-        <v>365725</v>
+        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>338516</v>
       </c>
       <c r="F44" s="6" cm="1">
-        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,F$3,F$2)/1000000,0)</f>
-        <v>338516</v>
+        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>323888</v>
       </c>
       <c r="G44" s="6" cm="1">
-        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,G$3,G$2)/1000000,0)</f>
-        <v>323888</v>
+        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>351002</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1833,819 +1833,819 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>10</v>
       </c>
       <c r="C47" s="1" cm="1">
-        <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,C$3,C$2)/1000000,0)</f>
-        <v>45687</v>
+        <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>48351</v>
       </c>
       <c r="D47" s="1" cm="1">
-        <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,D$3,D$2)/1000000,0)</f>
-        <v>48351</v>
+        <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>59531</v>
       </c>
       <c r="E47" s="1" cm="1">
-        <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,E$3,E$2)/1000000,0)</f>
-        <v>59531</v>
+        <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>55256</v>
       </c>
       <c r="F47" s="1" cm="1">
-        <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,F$3,F$2)/1000000,0)</f>
-        <v>55256</v>
+        <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>57411</v>
       </c>
       <c r="G47" s="1" cm="1">
-        <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,G$3,G$2)/1000000,0)</f>
-        <v>57411</v>
+        <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>94680</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>13</v>
       </c>
       <c r="C48" s="1" cm="1">
-        <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D48" s="1" cm="1">
-        <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E48" s="1" cm="1">
-        <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F48" s="1" cm="1">
-        <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="1" cm="1">
-        <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>14</v>
       </c>
       <c r="C49" s="1" cm="1">
-        <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,C$3,C$2)/1000000,0)</f>
-        <v>10505</v>
+        <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>10157</v>
       </c>
       <c r="D49" s="1" cm="1">
-        <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,D$3,D$2)/1000000,0)</f>
-        <v>10157</v>
+        <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>10903</v>
       </c>
       <c r="E49" s="1" cm="1">
-        <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,E$3,E$2)/1000000,0)</f>
-        <v>10903</v>
+        <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>12547</v>
       </c>
       <c r="F49" s="1" cm="1">
-        <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,F$3,F$2)/1000000,0)</f>
-        <v>12547</v>
+        <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>11056</v>
       </c>
       <c r="G49" s="1" cm="1">
-        <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,G$3,G$2)/1000000,0)</f>
-        <v>11056</v>
+        <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>11284</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
       <c r="C50" s="1" cm="1">
-        <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,C$3,C$2)/1000000,0)</f>
-        <v>9148</v>
+        <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>10806</v>
       </c>
       <c r="D50" s="1" cm="1">
-        <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,D$3,D$2)/1000000,0)</f>
-        <v>10806</v>
+        <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-27250</v>
       </c>
       <c r="E50" s="1" cm="1">
-        <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,E$3,E$2)/1000000,0)</f>
-        <v>-27250</v>
+        <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>5076</v>
       </c>
       <c r="F50" s="1" cm="1">
-        <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,F$3,F$2)/1000000,0)</f>
-        <v>5076</v>
+        <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>6517</v>
       </c>
       <c r="G50" s="1" cm="1">
-        <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,G$3,G$2)/1000000,0)</f>
-        <v>6517</v>
+        <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>2985</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>16</v>
       </c>
       <c r="C51" s="1" cm="1">
-        <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D51" s="1" cm="1">
-        <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E51" s="1" cm="1">
-        <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1" cm="1">
-        <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="1" cm="1">
-        <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
       <c r="C52" s="1" cm="1">
-        <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D52" s="1" cm="1">
-        <f t="array" ref="D52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E52" s="1" cm="1">
-        <f t="array" ref="E52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F52" s="1" cm="1">
-        <f t="array" ref="F52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="1" cm="1">
-        <f t="array" ref="G52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>18</v>
       </c>
       <c r="C53" s="1" cm="1">
-        <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D53" s="1" cm="1">
-        <f t="array" ref="D53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E53" s="1" cm="1">
-        <f t="array" ref="E53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F53" s="1" cm="1">
-        <f t="array" ref="F53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G53" s="1" cm="1">
-        <f t="array" ref="G53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>19</v>
       </c>
       <c r="C54" s="1" cm="1">
-        <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,C$3,C$2)/1000000,0)</f>
-        <v>891</v>
+        <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-5089</v>
       </c>
       <c r="D54" s="1" cm="1">
-        <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,D$3,D$2)/1000000,0)</f>
-        <v>-5089</v>
+        <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>34250</v>
       </c>
       <c r="E54" s="1" cm="1">
-        <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,E$3,E$2)/1000000,0)</f>
-        <v>34250</v>
+        <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-3488</v>
       </c>
       <c r="F54" s="1" cm="1">
-        <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,F$3,F$2)/1000000,0)</f>
-        <v>-3488</v>
+        <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>5690</v>
       </c>
       <c r="G54" s="1" cm="1">
-        <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,G$3,G$2)/1000000,0)</f>
-        <v>5690</v>
+        <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-4911</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55">
         <v>20</v>
       </c>
       <c r="C55" s="1" cm="1">
-        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D55" s="1" cm="1">
-        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1" cm="1">
-        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1" cm="1">
-        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="1" cm="1">
-        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>21</v>
       </c>
       <c r="C56" s="1" cm="1">
-        <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D56" s="1" cm="1">
-        <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E56" s="1" cm="1">
-        <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F56" s="1" cm="1">
-        <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="1" cm="1">
-        <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57">
         <v>22</v>
       </c>
       <c r="C57" s="1" cm="1">
-        <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D57" s="1" cm="1">
-        <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E57" s="1" cm="1">
-        <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F57" s="1" cm="1">
-        <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="1" cm="1">
-        <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="1" cm="1">
-        <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D58" s="1" cm="1">
-        <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E58" s="1" cm="1">
-        <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F58" s="1" cm="1">
-        <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G58" s="1" cm="1">
-        <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>24</v>
       </c>
       <c r="C59" s="1" cm="1">
-        <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D59" s="1" cm="1">
-        <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E59" s="1" cm="1">
-        <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F59" s="1" cm="1">
-        <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G59" s="1" cm="1">
-        <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60">
         <v>25</v>
       </c>
       <c r="C60" s="6" cm="1">
-        <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,C$3,C$2)/1000000,0)</f>
-        <v>66231</v>
+        <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>64225</v>
       </c>
       <c r="D60" s="6" cm="1">
-        <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,D$3,D$2)/1000000,0)</f>
-        <v>64225</v>
+        <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>77434</v>
       </c>
       <c r="E60" s="6" cm="1">
-        <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,E$3,E$2)/1000000,0)</f>
-        <v>77434</v>
+        <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>69391</v>
       </c>
       <c r="F60" s="6" cm="1">
-        <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,F$3,F$2)/1000000,0)</f>
-        <v>69391</v>
+        <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>80674</v>
       </c>
       <c r="G60" s="6" cm="1">
-        <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,G$3,G$2)/1000000,0)</f>
-        <v>80674</v>
+        <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>104038</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61">
         <v>26</v>
       </c>
       <c r="C61" s="1" cm="1">
-        <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,C$3,C$2)/1000000,0)</f>
-        <v>-12734</v>
+        <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-12451</v>
       </c>
       <c r="D61" s="1" cm="1">
-        <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,D$3,D$2)/1000000,0)</f>
-        <v>-12451</v>
+        <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-13313</v>
       </c>
       <c r="E61" s="1" cm="1">
-        <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,E$3,E$2)/1000000,0)</f>
-        <v>-13313</v>
+        <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-10495</v>
       </c>
       <c r="F61" s="1" cm="1">
-        <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,F$3,F$2)/1000000,0)</f>
-        <v>-10495</v>
+        <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-7309</v>
       </c>
       <c r="G61" s="1" cm="1">
-        <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,G$3,G$2)/1000000,0)</f>
-        <v>-7309</v>
+        <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-11085</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <v>34</v>
       </c>
       <c r="C62" s="1" cm="1">
-        <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,C$3,C$2)/1000000,0)</f>
-        <v>-32022</v>
+        <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-33542</v>
       </c>
       <c r="D62" s="1" cm="1">
-        <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,D$3,D$2)/1000000,0)</f>
-        <v>-33542</v>
+        <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>30845</v>
       </c>
       <c r="E62" s="1" cm="1">
-        <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,E$3,E$2)/1000000,0)</f>
-        <v>30845</v>
+        <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>58093</v>
       </c>
       <c r="F62" s="1" cm="1">
-        <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,F$3,F$2)/1000000,0)</f>
-        <v>58093</v>
+        <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>5335</v>
       </c>
       <c r="G62" s="1" cm="1">
-        <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,G$3,G$2)/1000000,0)</f>
-        <v>5335</v>
+        <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-2819</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>37</v>
       </c>
       <c r="C63" s="1" cm="1">
-        <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,C$3,C$2)/1000000,0)</f>
-        <v>-297</v>
+        <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-329</v>
       </c>
       <c r="D63" s="1" cm="1">
-        <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,D$3,D$2)/1000000,0)</f>
-        <v>-329</v>
+        <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-721</v>
       </c>
       <c r="E63" s="1" cm="1">
-        <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,E$3,E$2)/1000000,0)</f>
-        <v>-721</v>
+        <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-624</v>
       </c>
       <c r="F63" s="1" cm="1">
-        <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,F$3,F$2)/1000000,0)</f>
-        <v>-624</v>
+        <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-1524</v>
       </c>
       <c r="G63" s="1" cm="1">
-        <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,G$3,G$2)/1000000,0)</f>
-        <v>-1524</v>
+        <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-33</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>42</v>
       </c>
       <c r="C64" s="1" cm="1">
-        <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,C$3,C$2)/1000000,0)</f>
-        <v>-924</v>
+        <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-124</v>
       </c>
       <c r="D64" s="1" cm="1">
-        <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,D$3,D$2)/1000000,0)</f>
-        <v>-124</v>
+        <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-745</v>
       </c>
       <c r="E64" s="1" cm="1">
-        <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,E$3,E$2)/1000000,0)</f>
-        <v>-745</v>
+        <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-1078</v>
       </c>
       <c r="F64" s="1" cm="1">
-        <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,F$3,F$2)/1000000,0)</f>
-        <v>-1078</v>
+        <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-791</v>
       </c>
       <c r="G64" s="1" cm="1">
-        <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,G$3,G$2)/1000000,0)</f>
-        <v>-791</v>
+        <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-608</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>43</v>
       </c>
       <c r="C65" s="1" cm="1">
-        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D65" s="1" cm="1">
-        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E65" s="1" cm="1">
-        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F65" s="1" cm="1">
-        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="1" cm="1">
-        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66">
         <v>44</v>
       </c>
       <c r="C66" s="6" cm="1">
-        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$3,C$2)/1000000,0)</f>
-        <v>-45977</v>
+        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-46446</v>
       </c>
       <c r="D66" s="6" cm="1">
-        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$3,D$2)/1000000,0)</f>
-        <v>-46446</v>
+        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>16066</v>
       </c>
       <c r="E66" s="6" cm="1">
-        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$3,E$2)/1000000,0)</f>
-        <v>16066</v>
+        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>45896</v>
       </c>
       <c r="F66" s="6" cm="1">
-        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$3,F$2)/1000000,0)</f>
-        <v>45896</v>
+        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-4289</v>
       </c>
       <c r="G66" s="6" cm="1">
-        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$3,G$2)/1000000,0)</f>
-        <v>-4289</v>
+        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-14545</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67">
         <v>45</v>
       </c>
       <c r="C67" s="1" cm="1">
-        <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,C$3,C$2)/1000000,0)</f>
-        <v>-12150</v>
+        <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-12769</v>
       </c>
       <c r="D67" s="1" cm="1">
-        <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,D$3,D$2)/1000000,0)</f>
-        <v>-12769</v>
+        <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-13712</v>
       </c>
       <c r="E67" s="1" cm="1">
-        <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,E$3,E$2)/1000000,0)</f>
-        <v>-13712</v>
+        <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-14119</v>
       </c>
       <c r="F67" s="1" cm="1">
-        <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,F$3,F$2)/1000000,0)</f>
-        <v>-14119</v>
+        <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-14081</v>
       </c>
       <c r="G67" s="1" cm="1">
-        <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,G$3,G$2)/1000000,0)</f>
-        <v>-14081</v>
+        <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-14467</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>46</v>
       </c>
       <c r="C68" s="1" cm="1">
-        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,C$3,C$2)/1000000,0)</f>
-        <v>22057</v>
+        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>29014</v>
       </c>
       <c r="D68" s="1" cm="1">
-        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,D$3,D$2)/1000000,0)</f>
-        <v>29014</v>
+        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>432</v>
       </c>
       <c r="E68" s="1" cm="1">
-        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,E$3,E$2)/1000000,0)</f>
-        <v>432</v>
+        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-7819</v>
       </c>
       <c r="F68" s="1" cm="1">
-        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,F$3,F$2)/1000000,0)</f>
-        <v>-7819</v>
+        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>2499</v>
       </c>
       <c r="G68" s="1" cm="1">
-        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,G$3,G$2)/1000000,0)</f>
-        <v>2499</v>
+        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>12665</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>51</v>
       </c>
       <c r="C69" s="1" cm="1">
-        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,C$3,C$2)/1000000,0)</f>
-        <v>-29227</v>
+        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-32345</v>
       </c>
       <c r="D69" s="1" cm="1">
-        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,D$3,D$2)/1000000,0)</f>
-        <v>-32345</v>
+        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-72069</v>
       </c>
       <c r="E69" s="1" cm="1">
-        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,E$3,E$2)/1000000,0)</f>
-        <v>-72069</v>
+        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-66116</v>
       </c>
       <c r="F69" s="1" cm="1">
-        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,F$3,F$2)/1000000,0)</f>
-        <v>-66116</v>
+        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-71478</v>
       </c>
       <c r="G69" s="1" cm="1">
-        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,G$3,G$2)/1000000,0)</f>
-        <v>-71478</v>
+        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-84866</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70">
         <v>54</v>
       </c>
       <c r="C70" s="1" cm="1">
-        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,C$3,C$2)/1000000,0)</f>
-        <v>-1570</v>
+        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-1874</v>
       </c>
       <c r="D70" s="1" cm="1">
-        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,D$3,D$2)/1000000,0)</f>
-        <v>-1874</v>
+        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-2527</v>
       </c>
       <c r="E70" s="1" cm="1">
-        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,E$3,E$2)/1000000,0)</f>
-        <v>-2527</v>
+        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-2922</v>
       </c>
       <c r="F70" s="1" cm="1">
-        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,F$3,F$2)/1000000,0)</f>
-        <v>-2922</v>
+        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-3760</v>
       </c>
       <c r="G70" s="1" cm="1">
-        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,G$3,G$2)/1000000,0)</f>
-        <v>-3760</v>
+        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-6685</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>55</v>
       </c>
       <c r="C71" s="1" cm="1">
-        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D71" s="1" cm="1">
-        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E71" s="1" cm="1">
-        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F71" s="1" cm="1">
-        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1" cm="1">
-        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>56</v>
       </c>
       <c r="C72" s="6" cm="1">
-        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,C$3,C$2)/1000000,0)</f>
-        <v>-20890</v>
+        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-17974</v>
       </c>
       <c r="D72" s="6" cm="1">
-        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,D$3,D$2)/1000000,0)</f>
-        <v>-17974</v>
+        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>-87876</v>
       </c>
       <c r="E72" s="6" cm="1">
-        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,E$3,E$2)/1000000,0)</f>
-        <v>-87876</v>
+        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>-90976</v>
       </c>
       <c r="F72" s="6" cm="1">
-        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,F$3,F$2)/1000000,0)</f>
-        <v>-90976</v>
+        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-86820</v>
       </c>
       <c r="G72" s="6" cm="1">
-        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,G$3,G$2)/1000000,0)</f>
-        <v>-86820</v>
+        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-93353</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>58</v>
       </c>
       <c r="C73" s="1" cm="1">
-        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D73" s="1" cm="1">
-        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1" cm="1">
-        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F73" s="1" cm="1">
-        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G73" s="1" cm="1">
-        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>60</v>
       </c>
       <c r="C74" s="1" cm="1">
-        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,C$3,C$2)/1000000,0)</f>
+        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,C$3&amp;C$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D74" s="1" cm="1">
-        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,D$3,D$2)/1000000,0)</f>
+        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,D$3&amp;D$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1" cm="1">
-        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,E$3,E$2)/1000000,0)</f>
+        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,E$3&amp;E$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F74" s="1" cm="1">
-        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,F$3,F$2)/1000000,0)</f>
+        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,F$3&amp;F$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G74" s="1" cm="1">
-        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,G$3,G$2)/1000000,0)</f>
+        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,G$3&amp;G$2,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>61</v>
       </c>
       <c r="C75" s="6" cm="1">
-        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,C$3,C$2)/1000000,0)</f>
-        <v>-636</v>
+        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <v>-195</v>
       </c>
       <c r="D75" s="6" cm="1">
-        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,D$3,D$2)/1000000,0)</f>
-        <v>-195</v>
+        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <v>5624</v>
       </c>
       <c r="E75" s="6" cm="1">
-        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,E$3,E$2)/1000000,0)</f>
-        <v>5624</v>
+        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <v>24311</v>
       </c>
       <c r="F75" s="6" cm="1">
-        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,F$3,F$2)/1000000,0)</f>
-        <v>24311</v>
+        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <v>-10435</v>
       </c>
       <c r="G75" s="6" cm="1">
-        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,G$3,G$2)/1000000,0)</f>
-        <v>-10435</v>
+        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <v>-3860</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Financials.xlsx
+++ b/Examples/Financials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38999058-428B-44FC-8ACC-ACB9E11801D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5892459F-54D2-42BD-B0FD-AD231F99448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,23 +764,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>229234</v>
       </c>
       <c r="D5" s="1" cm="1">
-        <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>265595</v>
       </c>
       <c r="E5" s="1" cm="1">
-        <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>260174</v>
       </c>
       <c r="F5" s="1" cm="1">
-        <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>274515</v>
       </c>
       <c r="G5" s="1" cm="1">
-        <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>365817</v>
       </c>
     </row>
@@ -792,23 +792,23 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" cm="1">
-        <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-141048</v>
       </c>
       <c r="D6" s="1" cm="1">
-        <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-163756</v>
       </c>
       <c r="E6" s="1" cm="1">
-        <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-161782</v>
       </c>
       <c r="F6" s="1" cm="1">
-        <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-169559</v>
       </c>
       <c r="G6" s="1" cm="1">
-        <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-212981</v>
       </c>
     </row>
@@ -820,23 +820,23 @@
         <v>18</v>
       </c>
       <c r="C7" s="6" cm="1">
-        <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>88186</v>
       </c>
       <c r="D7" s="6" cm="1">
-        <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>101839</v>
       </c>
       <c r="E7" s="6" cm="1">
-        <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>98392</v>
       </c>
       <c r="F7" s="6" cm="1">
-        <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>104956</v>
       </c>
       <c r="G7" s="6" cm="1">
-        <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>152836</v>
       </c>
     </row>
@@ -848,23 +848,23 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" cm="1">
-        <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-26842</v>
       </c>
       <c r="D8" s="1" cm="1">
-        <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-30941</v>
       </c>
       <c r="E8" s="1" cm="1">
-        <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-34462</v>
       </c>
       <c r="F8" s="1" cm="1">
-        <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-38668</v>
       </c>
       <c r="G8" s="1" cm="1">
-        <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-43887</v>
       </c>
     </row>
@@ -876,23 +876,23 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" cm="1">
-        <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-15261</v>
       </c>
       <c r="D9" s="1" cm="1">
-        <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-16705</v>
       </c>
       <c r="E9" s="1" cm="1">
-        <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-18245</v>
       </c>
       <c r="F9" s="1" cm="1">
-        <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-19916</v>
       </c>
       <c r="G9" s="1" cm="1">
-        <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-21973</v>
       </c>
     </row>
@@ -904,23 +904,23 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-11581</v>
       </c>
       <c r="D10" s="1" cm="1">
-        <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-14236</v>
       </c>
       <c r="E10" s="1" cm="1">
-        <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-16217</v>
       </c>
       <c r="F10" s="1" cm="1">
-        <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-18752</v>
       </c>
       <c r="G10" s="1" cm="1">
-        <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-21914</v>
       </c>
     </row>
@@ -932,23 +932,23 @@
         <v>28</v>
       </c>
       <c r="C11" s="6" cm="1">
-        <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>61344</v>
       </c>
       <c r="D11" s="6" cm="1">
-        <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>70898</v>
       </c>
       <c r="E11" s="6" cm="1">
-        <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>63930</v>
       </c>
       <c r="F11" s="6" cm="1">
-        <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>66288</v>
       </c>
       <c r="G11" s="6" cm="1">
-        <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>108949</v>
       </c>
     </row>
@@ -960,23 +960,23 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" cm="1">
-        <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>2745</v>
       </c>
       <c r="D12" s="1" cm="1">
-        <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>2005</v>
       </c>
       <c r="E12" s="1" cm="1">
-        <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>1807</v>
       </c>
       <c r="F12" s="1" cm="1">
-        <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>803</v>
       </c>
       <c r="G12" s="1" cm="1">
-        <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>258</v>
       </c>
     </row>
@@ -988,23 +988,23 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>64089</v>
       </c>
       <c r="D13" s="1" cm="1">
-        <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>72903</v>
       </c>
       <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>65737</v>
       </c>
       <c r="F13" s="1" cm="1">
-        <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>67091</v>
       </c>
       <c r="G13" s="1" cm="1">
-        <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>109207</v>
       </c>
     </row>
@@ -1016,23 +1016,23 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-15738</v>
       </c>
       <c r="D14" s="1" cm="1">
-        <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-13372</v>
       </c>
       <c r="E14" s="1" cm="1">
-        <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-10481</v>
       </c>
       <c r="F14" s="1" cm="1">
-        <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-9680</v>
       </c>
       <c r="G14" s="1" cm="1">
-        <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-14527</v>
       </c>
     </row>
@@ -1044,23 +1044,23 @@
         <v>64</v>
       </c>
       <c r="C15" s="6" cm="1">
-        <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>48351</v>
       </c>
       <c r="D15" s="6" cm="1">
-        <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>59531</v>
       </c>
       <c r="E15" s="6" cm="1">
-        <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>55256</v>
       </c>
       <c r="F15" s="6" cm="1">
-        <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>57411</v>
       </c>
       <c r="G15" s="6" cm="1">
-        <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>94680</v>
       </c>
     </row>
@@ -1080,23 +1080,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" cm="1">
-        <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>20289</v>
       </c>
       <c r="D18" s="1" cm="1">
-        <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>25913</v>
       </c>
       <c r="E18" s="1" cm="1">
-        <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>48844</v>
       </c>
       <c r="F18" s="1" cm="1">
-        <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>38016</v>
       </c>
       <c r="G18" s="1" cm="1">
-        <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>34940</v>
       </c>
     </row>
@@ -1108,23 +1108,23 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" cm="1">
-        <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>53892</v>
       </c>
       <c r="D19" s="1" cm="1">
-        <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>40388</v>
       </c>
       <c r="E19" s="1" cm="1">
-        <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>51713</v>
       </c>
       <c r="F19" s="1" cm="1">
-        <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>52927</v>
       </c>
       <c r="G19" s="1" cm="1">
-        <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>27699</v>
       </c>
     </row>
@@ -1136,23 +1136,23 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" cm="1">
-        <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>17874</v>
       </c>
       <c r="D20" s="1" cm="1">
-        <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>23186</v>
       </c>
       <c r="E20" s="1" cm="1">
-        <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>22926</v>
       </c>
       <c r="F20" s="1" cm="1">
-        <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>16120</v>
       </c>
       <c r="G20" s="1" cm="1">
-        <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>26278</v>
       </c>
     </row>
@@ -1164,23 +1164,23 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" cm="1">
-        <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>4855</v>
       </c>
       <c r="D21" s="1" cm="1">
-        <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>3956</v>
       </c>
       <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>4106</v>
       </c>
       <c r="F21" s="1" cm="1">
-        <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>4061</v>
       </c>
       <c r="G21" s="1" cm="1">
-        <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>6580</v>
       </c>
     </row>
@@ -1192,23 +1192,23 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" cm="1">
-        <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>31735</v>
       </c>
       <c r="D22" s="1" cm="1">
-        <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>37896</v>
       </c>
       <c r="E22" s="1" cm="1">
-        <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>35230</v>
       </c>
       <c r="F22" s="1" cm="1">
-        <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>32589</v>
       </c>
       <c r="G22" s="1" cm="1">
-        <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>39339</v>
       </c>
     </row>
@@ -1220,23 +1220,23 @@
         <v>30</v>
       </c>
       <c r="C23" s="6" cm="1">
-        <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>128645</v>
       </c>
       <c r="D23" s="6" cm="1">
-        <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>131339</v>
       </c>
       <c r="E23" s="6" cm="1">
-        <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>162819</v>
       </c>
       <c r="F23" s="6" cm="1">
-        <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>143713</v>
       </c>
       <c r="G23" s="6" cm="1">
-        <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>134836</v>
       </c>
     </row>
@@ -1248,23 +1248,23 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" cm="1">
-        <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>33783</v>
       </c>
       <c r="D24" s="1" cm="1">
-        <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>41304</v>
       </c>
       <c r="E24" s="1" cm="1">
-        <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>37378</v>
       </c>
       <c r="F24" s="1" cm="1">
-        <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>36766</v>
       </c>
       <c r="G24" s="1" cm="1">
-        <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>39440</v>
       </c>
     </row>
@@ -1276,23 +1276,23 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" cm="1">
-        <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>194714</v>
       </c>
       <c r="D25" s="1" cm="1">
-        <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>170799</v>
       </c>
       <c r="E25" s="1" cm="1">
-        <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>105341</v>
       </c>
       <c r="F25" s="1" cm="1">
-        <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>100887</v>
       </c>
       <c r="G25" s="1" cm="1">
-        <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>127877</v>
       </c>
     </row>
@@ -1304,23 +1304,23 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" cm="1">
-        <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>18177</v>
       </c>
       <c r="D26" s="1" cm="1">
-        <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>22283</v>
       </c>
       <c r="E26" s="1" cm="1">
-        <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>32978</v>
       </c>
       <c r="F26" s="1" cm="1">
-        <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>42522</v>
       </c>
       <c r="G26" s="1" cm="1">
-        <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>48849</v>
       </c>
     </row>
@@ -1332,23 +1332,23 @@
         <v>49</v>
       </c>
       <c r="C27" s="6" cm="1">
-        <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>246674</v>
       </c>
       <c r="D27" s="6" cm="1">
-        <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>234386</v>
       </c>
       <c r="E27" s="6" cm="1">
-        <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>175697</v>
       </c>
       <c r="F27" s="6" cm="1">
-        <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>180175</v>
       </c>
       <c r="G27" s="6" cm="1">
-        <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>216166</v>
       </c>
     </row>
@@ -1360,23 +1360,23 @@
         <v>50</v>
       </c>
       <c r="C28" s="6" cm="1">
-        <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>375319</v>
       </c>
       <c r="D28" s="6" cm="1">
-        <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>365725</v>
       </c>
       <c r="E28" s="6" cm="1">
-        <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>338516</v>
       </c>
       <c r="F28" s="6" cm="1">
-        <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>323888</v>
       </c>
       <c r="G28" s="6" cm="1">
-        <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>351002</v>
       </c>
     </row>
@@ -1388,23 +1388,23 @@
         <v>51</v>
       </c>
       <c r="C29" s="1" cm="1">
-        <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>44242</v>
       </c>
       <c r="D29" s="1" cm="1">
-        <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>55888</v>
       </c>
       <c r="E29" s="1" cm="1">
-        <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>46236</v>
       </c>
       <c r="F29" s="1" cm="1">
-        <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>42296</v>
       </c>
       <c r="G29" s="1" cm="1">
-        <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>54763</v>
       </c>
     </row>
@@ -1416,24 +1416,24 @@
         <v>56</v>
       </c>
       <c r="C30" s="1" cm="1">
-        <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>18473</v>
       </c>
       <c r="D30" s="1" cm="1">
-        <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>20748</v>
       </c>
       <c r="E30" s="1" cm="1">
-        <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>16240</v>
       </c>
       <c r="F30" s="1" cm="1">
-        <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>13769</v>
       </c>
       <c r="G30" s="1" cm="1">
-        <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,G$3&amp;G$2,"SimFin")/1000000,0)</f>
-        <v>15613</v>
+        <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1444,23 +1444,23 @@
         <v>60</v>
       </c>
       <c r="C31" s="1" cm="1">
-        <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>38099</v>
       </c>
       <c r="D31" s="1" cm="1">
-        <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>39293</v>
       </c>
       <c r="E31" s="1" cm="1">
-        <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>43242</v>
       </c>
       <c r="F31" s="1" cm="1">
-        <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>49327</v>
       </c>
       <c r="G31" s="1" cm="1">
-        <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>55105</v>
       </c>
     </row>
@@ -1472,24 +1472,24 @@
         <v>66</v>
       </c>
       <c r="C32" s="6" cm="1">
-        <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>100814</v>
       </c>
       <c r="D32" s="6" cm="1">
-        <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>115929</v>
       </c>
       <c r="E32" s="6" cm="1">
-        <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>105718</v>
       </c>
       <c r="F32" s="6" cm="1">
-        <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>105392</v>
       </c>
       <c r="G32" s="6" cm="1">
-        <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,G$3&amp;G$2,"SimFin")/1000000,0)</f>
-        <v>125481</v>
+        <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>115868</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1500,24 +1500,24 @@
         <v>67</v>
       </c>
       <c r="C33" s="1" cm="1">
-        <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>97207</v>
       </c>
       <c r="D33" s="1" cm="1">
-        <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>93735</v>
       </c>
       <c r="E33" s="1" cm="1">
-        <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>91807</v>
       </c>
       <c r="F33" s="1" cm="1">
-        <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>98667</v>
       </c>
       <c r="G33" s="1" cm="1">
-        <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,G$3&amp;G$2,"SimFin")/1000000,0)</f>
-        <v>109106</v>
+        <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>118719</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1528,23 +1528,23 @@
         <v>70</v>
       </c>
       <c r="C34" s="1" cm="1">
-        <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>43251</v>
       </c>
       <c r="D34" s="1" cm="1">
-        <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>48914</v>
       </c>
       <c r="E34" s="1" cm="1">
-        <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>50503</v>
       </c>
       <c r="F34" s="1" cm="1">
-        <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>54490</v>
       </c>
       <c r="G34" s="1" cm="1">
-        <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>53325</v>
       </c>
     </row>
@@ -1556,24 +1556,24 @@
         <v>81</v>
       </c>
       <c r="C35" s="6" cm="1">
-        <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>140458</v>
       </c>
       <c r="D35" s="6" cm="1">
-        <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>142649</v>
       </c>
       <c r="E35" s="6" cm="1">
-        <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>142310</v>
       </c>
       <c r="F35" s="6" cm="1">
-        <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>153157</v>
       </c>
       <c r="G35" s="6" cm="1">
-        <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,G$3&amp;G$2,"SimFin")/1000000,0)</f>
-        <v>162431</v>
+        <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>172044</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1584,23 +1584,23 @@
         <v>82</v>
       </c>
       <c r="C36" s="6" cm="1">
-        <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>241272</v>
       </c>
       <c r="D36" s="6" cm="1">
-        <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>258578</v>
       </c>
       <c r="E36" s="6" cm="1">
-        <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>248028</v>
       </c>
       <c r="F36" s="6" cm="1">
-        <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>258549</v>
       </c>
       <c r="G36" s="6" cm="1">
-        <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>287912</v>
       </c>
     </row>
@@ -1612,23 +1612,23 @@
         <v>83</v>
       </c>
       <c r="C37" s="1" cm="1">
-        <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D37" s="1" cm="1">
-        <f t="array" ref="D37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E37" s="1" cm="1">
-        <f t="array" ref="E37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F37" s="1" cm="1">
-        <f t="array" ref="F37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G37" s="1" cm="1">
-        <f t="array" ref="G37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1640,23 +1640,23 @@
         <v>84</v>
       </c>
       <c r="C38" s="1" cm="1">
-        <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>35867</v>
       </c>
       <c r="D38" s="1" cm="1">
-        <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>40201</v>
       </c>
       <c r="E38" s="1" cm="1">
-        <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>45174</v>
       </c>
       <c r="F38" s="1" cm="1">
-        <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>50779</v>
       </c>
       <c r="G38" s="1" cm="1">
-        <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>57365</v>
       </c>
     </row>
@@ -1668,23 +1668,23 @@
         <v>88</v>
       </c>
       <c r="C39" s="1" cm="1">
-        <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D39" s="1" cm="1">
-        <f t="array" ref="D39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E39" s="1" cm="1">
-        <f t="array" ref="E39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F39" s="1" cm="1">
-        <f t="array" ref="F39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G39" s="1" cm="1">
-        <f t="array" ref="G39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1696,23 +1696,23 @@
         <v>89</v>
       </c>
       <c r="C40" s="1" cm="1">
-        <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>98330</v>
       </c>
       <c r="D40" s="1" cm="1">
-        <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>70400</v>
       </c>
       <c r="E40" s="1" cm="1">
-        <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>45898</v>
       </c>
       <c r="F40" s="1" cm="1">
-        <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>14966</v>
       </c>
       <c r="G40" s="1" cm="1">
-        <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>5562</v>
       </c>
     </row>
@@ -1724,23 +1724,23 @@
         <v>90</v>
       </c>
       <c r="C41" s="1" cm="1">
-        <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-150</v>
       </c>
       <c r="D41" s="1" cm="1">
-        <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-3454</v>
       </c>
       <c r="E41" s="1" cm="1">
-        <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-584</v>
       </c>
       <c r="F41" s="1" cm="1">
-        <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-406</v>
       </c>
       <c r="G41" s="1" cm="1">
-        <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>163</v>
       </c>
     </row>
@@ -1752,23 +1752,23 @@
         <v>92</v>
       </c>
       <c r="C42" s="1" cm="1">
-        <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D42" s="1" cm="1">
-        <f t="array" ref="D42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="1" cm="1">
-        <f t="array" ref="E42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F42" s="1" cm="1">
-        <f t="array" ref="F42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G42" s="1" cm="1">
-        <f t="array" ref="G42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1780,23 +1780,23 @@
         <v>93</v>
       </c>
       <c r="C43" s="6" cm="1">
-        <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>134047</v>
       </c>
       <c r="D43" s="6" cm="1">
-        <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>107147</v>
       </c>
       <c r="E43" s="6" cm="1">
-        <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>90488</v>
       </c>
       <c r="F43" s="6" cm="1">
-        <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>65339</v>
       </c>
       <c r="G43" s="6" cm="1">
-        <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>63090</v>
       </c>
     </row>
@@ -1808,23 +1808,23 @@
         <v>94</v>
       </c>
       <c r="C44" s="6" cm="1">
-        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>375319</v>
       </c>
       <c r="D44" s="6" cm="1">
-        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>365725</v>
       </c>
       <c r="E44" s="6" cm="1">
-        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>338516</v>
       </c>
       <c r="F44" s="6" cm="1">
-        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>323888</v>
       </c>
       <c r="G44" s="6" cm="1">
-        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>351002</v>
       </c>
     </row>
@@ -1844,23 +1844,23 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" cm="1">
-        <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>48351</v>
       </c>
       <c r="D47" s="1" cm="1">
-        <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>59531</v>
       </c>
       <c r="E47" s="1" cm="1">
-        <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>55256</v>
       </c>
       <c r="F47" s="1" cm="1">
-        <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>57411</v>
       </c>
       <c r="G47" s="1" cm="1">
-        <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>94680</v>
       </c>
     </row>
@@ -1872,23 +1872,23 @@
         <v>13</v>
       </c>
       <c r="C48" s="1" cm="1">
-        <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D48" s="1" cm="1">
-        <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E48" s="1" cm="1">
-        <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F48" s="1" cm="1">
-        <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G48" s="1" cm="1">
-        <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1900,23 +1900,23 @@
         <v>14</v>
       </c>
       <c r="C49" s="1" cm="1">
-        <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>10157</v>
       </c>
       <c r="D49" s="1" cm="1">
-        <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>10903</v>
       </c>
       <c r="E49" s="1" cm="1">
-        <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>12547</v>
       </c>
       <c r="F49" s="1" cm="1">
-        <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>11056</v>
       </c>
       <c r="G49" s="1" cm="1">
-        <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>11284</v>
       </c>
     </row>
@@ -1928,23 +1928,23 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" cm="1">
-        <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>10806</v>
       </c>
       <c r="D50" s="1" cm="1">
-        <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-27250</v>
       </c>
       <c r="E50" s="1" cm="1">
-        <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>5076</v>
       </c>
       <c r="F50" s="1" cm="1">
-        <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>6517</v>
       </c>
       <c r="G50" s="1" cm="1">
-        <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>2985</v>
       </c>
     </row>
@@ -1956,23 +1956,23 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" cm="1">
-        <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D51" s="1" cm="1">
-        <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E51" s="1" cm="1">
-        <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F51" s="1" cm="1">
-        <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G51" s="1" cm="1">
-        <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1984,23 +1984,23 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" cm="1">
-        <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D52" s="1" cm="1">
-        <f t="array" ref="D52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E52" s="1" cm="1">
-        <f t="array" ref="E52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F52" s="1" cm="1">
-        <f t="array" ref="F52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="1" cm="1">
-        <f t="array" ref="G52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2012,23 +2012,23 @@
         <v>18</v>
       </c>
       <c r="C53" s="1" cm="1">
-        <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D53" s="1" cm="1">
-        <f t="array" ref="D53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E53" s="1" cm="1">
-        <f t="array" ref="E53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F53" s="1" cm="1">
-        <f t="array" ref="F53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G53" s="1" cm="1">
-        <f t="array" ref="G53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2040,23 +2040,23 @@
         <v>19</v>
       </c>
       <c r="C54" s="1" cm="1">
-        <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-5089</v>
       </c>
       <c r="D54" s="1" cm="1">
-        <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>34250</v>
       </c>
       <c r="E54" s="1" cm="1">
-        <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-3488</v>
       </c>
       <c r="F54" s="1" cm="1">
-        <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>5690</v>
       </c>
       <c r="G54" s="1" cm="1">
-        <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-4911</v>
       </c>
     </row>
@@ -2068,23 +2068,23 @@
         <v>20</v>
       </c>
       <c r="C55" s="1" cm="1">
-        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D55" s="1" cm="1">
-        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E55" s="1" cm="1">
-        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F55" s="1" cm="1">
-        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G55" s="1" cm="1">
-        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2096,23 +2096,23 @@
         <v>21</v>
       </c>
       <c r="C56" s="1" cm="1">
-        <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D56" s="1" cm="1">
-        <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E56" s="1" cm="1">
-        <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F56" s="1" cm="1">
-        <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G56" s="1" cm="1">
-        <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2124,23 +2124,23 @@
         <v>22</v>
       </c>
       <c r="C57" s="1" cm="1">
-        <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D57" s="1" cm="1">
-        <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E57" s="1" cm="1">
-        <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F57" s="1" cm="1">
-        <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G57" s="1" cm="1">
-        <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2152,23 +2152,23 @@
         <v>23</v>
       </c>
       <c r="C58" s="1" cm="1">
-        <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D58" s="1" cm="1">
-        <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E58" s="1" cm="1">
-        <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F58" s="1" cm="1">
-        <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G58" s="1" cm="1">
-        <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2180,23 +2180,23 @@
         <v>24</v>
       </c>
       <c r="C59" s="1" cm="1">
-        <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D59" s="1" cm="1">
-        <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E59" s="1" cm="1">
-        <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F59" s="1" cm="1">
-        <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G59" s="1" cm="1">
-        <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2208,23 +2208,23 @@
         <v>25</v>
       </c>
       <c r="C60" s="6" cm="1">
-        <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>64225</v>
       </c>
       <c r="D60" s="6" cm="1">
-        <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>77434</v>
       </c>
       <c r="E60" s="6" cm="1">
-        <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>69391</v>
       </c>
       <c r="F60" s="6" cm="1">
-        <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>80674</v>
       </c>
       <c r="G60" s="6" cm="1">
-        <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>104038</v>
       </c>
     </row>
@@ -2236,23 +2236,23 @@
         <v>26</v>
       </c>
       <c r="C61" s="1" cm="1">
-        <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-12451</v>
       </c>
       <c r="D61" s="1" cm="1">
-        <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-13313</v>
       </c>
       <c r="E61" s="1" cm="1">
-        <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-10495</v>
       </c>
       <c r="F61" s="1" cm="1">
-        <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-7309</v>
       </c>
       <c r="G61" s="1" cm="1">
-        <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-11085</v>
       </c>
     </row>
@@ -2264,23 +2264,23 @@
         <v>34</v>
       </c>
       <c r="C62" s="1" cm="1">
-        <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-33542</v>
       </c>
       <c r="D62" s="1" cm="1">
-        <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>30845</v>
       </c>
       <c r="E62" s="1" cm="1">
-        <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>58093</v>
       </c>
       <c r="F62" s="1" cm="1">
-        <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>5335</v>
       </c>
       <c r="G62" s="1" cm="1">
-        <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-2819</v>
       </c>
     </row>
@@ -2292,23 +2292,23 @@
         <v>37</v>
       </c>
       <c r="C63" s="1" cm="1">
-        <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-329</v>
       </c>
       <c r="D63" s="1" cm="1">
-        <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-721</v>
       </c>
       <c r="E63" s="1" cm="1">
-        <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-624</v>
       </c>
       <c r="F63" s="1" cm="1">
-        <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-1524</v>
       </c>
       <c r="G63" s="1" cm="1">
-        <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-33</v>
       </c>
     </row>
@@ -2320,23 +2320,23 @@
         <v>42</v>
       </c>
       <c r="C64" s="1" cm="1">
-        <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-124</v>
       </c>
       <c r="D64" s="1" cm="1">
-        <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-745</v>
       </c>
       <c r="E64" s="1" cm="1">
-        <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-1078</v>
       </c>
       <c r="F64" s="1" cm="1">
-        <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-791</v>
       </c>
       <c r="G64" s="1" cm="1">
-        <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-608</v>
       </c>
     </row>
@@ -2348,23 +2348,23 @@
         <v>43</v>
       </c>
       <c r="C65" s="1" cm="1">
-        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D65" s="1" cm="1">
-        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E65" s="1" cm="1">
-        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F65" s="1" cm="1">
-        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G65" s="1" cm="1">
-        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2376,23 +2376,23 @@
         <v>44</v>
       </c>
       <c r="C66" s="6" cm="1">
-        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-46446</v>
       </c>
       <c r="D66" s="6" cm="1">
-        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>16066</v>
       </c>
       <c r="E66" s="6" cm="1">
-        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>45896</v>
       </c>
       <c r="F66" s="6" cm="1">
-        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-4289</v>
       </c>
       <c r="G66" s="6" cm="1">
-        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-14545</v>
       </c>
     </row>
@@ -2404,23 +2404,23 @@
         <v>45</v>
       </c>
       <c r="C67" s="1" cm="1">
-        <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-12769</v>
       </c>
       <c r="D67" s="1" cm="1">
-        <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-13712</v>
       </c>
       <c r="E67" s="1" cm="1">
-        <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-14119</v>
       </c>
       <c r="F67" s="1" cm="1">
-        <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-14081</v>
       </c>
       <c r="G67" s="1" cm="1">
-        <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-14467</v>
       </c>
     </row>
@@ -2432,23 +2432,23 @@
         <v>46</v>
       </c>
       <c r="C68" s="1" cm="1">
-        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>29014</v>
       </c>
       <c r="D68" s="1" cm="1">
-        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>432</v>
       </c>
       <c r="E68" s="1" cm="1">
-        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-7819</v>
       </c>
       <c r="F68" s="1" cm="1">
-        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>2499</v>
       </c>
       <c r="G68" s="1" cm="1">
-        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>12665</v>
       </c>
     </row>
@@ -2460,23 +2460,23 @@
         <v>51</v>
       </c>
       <c r="C69" s="1" cm="1">
-        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-32345</v>
       </c>
       <c r="D69" s="1" cm="1">
-        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-72069</v>
       </c>
       <c r="E69" s="1" cm="1">
-        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-66116</v>
       </c>
       <c r="F69" s="1" cm="1">
-        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-71478</v>
       </c>
       <c r="G69" s="1" cm="1">
-        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-84866</v>
       </c>
     </row>
@@ -2488,23 +2488,23 @@
         <v>54</v>
       </c>
       <c r="C70" s="1" cm="1">
-        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-1874</v>
       </c>
       <c r="D70" s="1" cm="1">
-        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-2527</v>
       </c>
       <c r="E70" s="1" cm="1">
-        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-2922</v>
       </c>
       <c r="F70" s="1" cm="1">
-        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-3760</v>
       </c>
       <c r="G70" s="1" cm="1">
-        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-6685</v>
       </c>
     </row>
@@ -2516,23 +2516,23 @@
         <v>55</v>
       </c>
       <c r="C71" s="1" cm="1">
-        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D71" s="1" cm="1">
-        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E71" s="1" cm="1">
-        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F71" s="1" cm="1">
-        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G71" s="1" cm="1">
-        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2544,23 +2544,23 @@
         <v>56</v>
       </c>
       <c r="C72" s="6" cm="1">
-        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-17974</v>
       </c>
       <c r="D72" s="6" cm="1">
-        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>-87876</v>
       </c>
       <c r="E72" s="6" cm="1">
-        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>-90976</v>
       </c>
       <c r="F72" s="6" cm="1">
-        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-86820</v>
       </c>
       <c r="G72" s="6" cm="1">
-        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-93353</v>
       </c>
     </row>
@@ -2572,23 +2572,23 @@
         <v>58</v>
       </c>
       <c r="C73" s="1" cm="1">
-        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D73" s="1" cm="1">
-        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1" cm="1">
-        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F73" s="1" cm="1">
-        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G73" s="1" cm="1">
-        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2600,23 +2600,23 @@
         <v>60</v>
       </c>
       <c r="C74" s="1" cm="1">
-        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="D74" s="1" cm="1">
-        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="E74" s="1" cm="1">
-        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="F74" s="1" cm="1">
-        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
       <c r="G74" s="1" cm="1">
-        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2628,23 +2628,23 @@
         <v>61</v>
       </c>
       <c r="C75" s="6" cm="1">
-        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,C$3&amp;C$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,C$2&amp;C$3,"SimFin")/1000000,0)</f>
         <v>-195</v>
       </c>
       <c r="D75" s="6" cm="1">
-        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,D$3&amp;D$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,D$2&amp;D$3,"SimFin")/1000000,0)</f>
         <v>5624</v>
       </c>
       <c r="E75" s="6" cm="1">
-        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,E$3&amp;E$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,E$2&amp;E$3,"SimFin")/1000000,0)</f>
         <v>24311</v>
       </c>
       <c r="F75" s="6" cm="1">
-        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,F$3&amp;F$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,F$2&amp;F$3,"SimFin")/1000000,0)</f>
         <v>-10435</v>
       </c>
       <c r="G75" s="6" cm="1">
-        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,G$3&amp;G$2,"SimFin")/1000000,0)</f>
+        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,G$2&amp;G$3,"SimFin")/1000000,0)</f>
         <v>-3860</v>
       </c>
     </row>

--- a/Examples/Financials.xlsx
+++ b/Examples/Financials.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5892459F-54D2-42BD-B0FD-AD231F99448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="PL">"pl"</definedName>
     <definedName name="Symbol">Financials!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>Income Statement</t>
   </si>
@@ -184,12 +183,6 @@
     <t>Total Liabilities &amp; Equity</t>
   </si>
   <si>
-    <t>Net Income/Starting Line</t>
-  </si>
-  <si>
-    <t>Other Adjustments</t>
-  </si>
-  <si>
     <t>Depreciation &amp; Amortization</t>
   </si>
   <si>
@@ -199,12 +192,6 @@
     <t>Stock-Based Compensation</t>
   </si>
   <si>
-    <t>Deferred Income Taxes</t>
-  </si>
-  <si>
-    <t>Other Non-Cash Adjustments</t>
-  </si>
-  <si>
     <t>Change in Working Capital</t>
   </si>
   <si>
@@ -217,12 +204,6 @@
     <t>Increase (Decrease) in Accounts Payable</t>
   </si>
   <si>
-    <t>Increase (Decrease) in Other</t>
-  </si>
-  <si>
-    <t>Net Cash From Discontinued Operations (operating)</t>
-  </si>
-  <si>
     <t>Cash from Operating Activities</t>
   </si>
   <si>
@@ -238,9 +219,6 @@
     <t>Other Investing Activities</t>
   </si>
   <si>
-    <t>Net Cash From Discontinued Operations (investing)</t>
-  </si>
-  <si>
     <t>Cash from Investing Activities</t>
   </si>
   <si>
@@ -256,15 +234,9 @@
     <t>Other Financing Activities</t>
   </si>
   <si>
-    <t>Net Cash From Discontinued Operations (financing)</t>
-  </si>
-  <si>
     <t>Cash from Financing Activities</t>
   </si>
   <si>
-    <t>Change in Cash from Disc. Operations and Other</t>
-  </si>
-  <si>
     <t>Effect of Foreign Exchange Rates</t>
   </si>
   <si>
@@ -275,17 +247,188 @@
   </si>
   <si>
     <t>AAPL</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>GrossProfit</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>OperatingIncome</t>
+  </si>
+  <si>
+    <t>OtherIncomeExpense</t>
+  </si>
+  <si>
+    <t>IncomeBeforeTax</t>
+  </si>
+  <si>
+    <t>IncomeTaxes</t>
+  </si>
+  <si>
+    <t>NetIncome</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>ShortTermInvestments</t>
+  </si>
+  <si>
+    <t>AccountsReceivable</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>OtherCurrentAssets</t>
+  </si>
+  <si>
+    <t>CurrentAssets</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>LongTermInvestments</t>
+  </si>
+  <si>
+    <t>OtherAssets</t>
+  </si>
+  <si>
+    <t>NoncurrentAssets</t>
+  </si>
+  <si>
+    <t>TotalAssets</t>
+  </si>
+  <si>
+    <t>AccountsPayable</t>
+  </si>
+  <si>
+    <t>ShortTermDebt</t>
+  </si>
+  <si>
+    <t>OtherCurrentLiabilities</t>
+  </si>
+  <si>
+    <t>CurrentLiabilities</t>
+  </si>
+  <si>
+    <t>LongTermDebt</t>
+  </si>
+  <si>
+    <t>OtherLiabilities</t>
+  </si>
+  <si>
+    <t>NoncurrentLiabilities</t>
+  </si>
+  <si>
+    <t>TotalLiabilities</t>
+  </si>
+  <si>
+    <t>PreferredStock</t>
+  </si>
+  <si>
+    <t>CommonStock</t>
+  </si>
+  <si>
+    <t>TreasuryStock</t>
+  </si>
+  <si>
+    <t>RetainedEarnings</t>
+  </si>
+  <si>
+    <t>OtherStockholderEquity</t>
+  </si>
+  <si>
+    <t>NoncontrollingInterest</t>
+  </si>
+  <si>
+    <t>StockholdersEquity</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>DepreciationAmortization</t>
+  </si>
+  <si>
+    <t>NonCashItems</t>
+  </si>
+  <si>
+    <t>StockBasedCompensation</t>
+  </si>
+  <si>
+    <t>ChangeInWorkingCapital</t>
+  </si>
+  <si>
+    <t>ChangeInReceivables</t>
+  </si>
+  <si>
+    <t>ChangeInInvenInry</t>
+  </si>
+  <si>
+    <t>ChangeInPayables</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>AcquisitionDivestitures</t>
+  </si>
+  <si>
+    <t>OtherInvestingActivities</t>
+  </si>
+  <si>
+    <t>CFI</t>
+  </si>
+  <si>
+    <t>DividendsPaid</t>
+  </si>
+  <si>
+    <t>NetBorrowings</t>
+  </si>
+  <si>
+    <t>StockRepurchase</t>
+  </si>
+  <si>
+    <t>OtherFinancingActivities</t>
+  </si>
+  <si>
+    <t>CFF</t>
+  </si>
+  <si>
+    <t>ExchangeRateEffect</t>
+  </si>
+  <si>
+    <t>ChangeInCash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +464,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,6 +503,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -369,6 +520,245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv_ac3aa300a9bc4c719c473f83424cdaf7">
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>7e0f7922-1b39-4b24-bf23-88af63b95527</stp>
+        <tr r="F10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_ac3aa300a9bc4c719c473f83424cdaf7">
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>4cd77c58-246e-447f-8dbb-2d5ce307d416</stp>
+        <tr r="F67" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>9d96f455-ba68-4e02-9bee-7d99bd5bd1cb</stp>
+        <tr r="F57" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>2d1b3436-d4e6-4c63-820e-a6f56bfd2454</stp>
+        <tr r="F36" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>55841e7f-72d0-4dc9-9194-ef0cbf8d3060</stp>
+        <tr r="F35" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>f7346443-c990-4ccf-b32b-cafa33721153</stp>
+        <tr r="F29" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>85adb466-c5eb-45ca-8638-b0593f2b11c1</stp>
+        <tr r="F61" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>1612791d-4890-4f94-9c8f-cc6dff68ecb3</stp>
+        <tr r="F64" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>147ff1ee-b071-412b-bd1f-de12270e3603</stp>
+        <tr r="F14" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>1566c20f-4947-4343-82cf-9a19f1ba0c6e</stp>
+        <tr r="F65" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>9207ab42-5fbd-43db-b3d8-b08a4804a932</stp>
+        <tr r="F52" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>64550225-2bd8-4f27-95c5-8d7f2dca2271</stp>
+        <tr r="F6" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>7e9c9c28-e9d3-439f-8d86-aed512ab9623</stp>
+        <tr r="F59" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>23eb7fee-35e3-46ca-83de-b951448231d4</stp>
+        <tr r="F62" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>81abc0e1-bb84-4be9-99d8-2bf185780728</stp>
+        <tr r="F27" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>e1127b9f-970c-495c-a67b-f5fa505cfb29</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>ecee35aa-daeb-4d57-8667-7c4d78b2c0dc</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>1f716ddb-3dc1-4160-a588-482abcc479e3</stp>
+        <tr r="F66" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>c12da7dd-bbde-4fe3-85ff-7eeb6982b611</stp>
+        <tr r="F7" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>9d87a57c-c789-49b1-814c-f881f399f985</stp>
+        <tr r="F37" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>86c7c6a0-ef07-42b8-9351-f8b24ab2d459</stp>
+        <tr r="F48" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>f15d9418-34db-4114-b1c1-b0e3c3357f5a</stp>
+        <tr r="F9" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>36c57553-c6f5-4d8f-b957-a12dfc30de37</stp>
+        <tr r="F49" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>a6e6815a-437c-4e5e-b7a4-b49b73bd07e4</stp>
+        <tr r="F58" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>8d71ebad-4e27-46f6-8243-7561f3ade01e</stp>
+        <tr r="F38" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>7a0e6327-c019-4bd8-a78c-c14103308523</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>e590a925-f52c-4257-882a-9244ddefd8fe</stp>
+        <tr r="F51" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>6c745a5e-1b44-4720-a7cf-33cd708f9b36</stp>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>de088f3b-d1f1-4c16-bce1-0f9a421c5a36</stp>
+        <tr r="F54" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>2ea3b150-6d0c-4ebf-890d-9c0c804c8ddb</stp>
+        <tr r="F63" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>f167004d-13c5-4d07-9aba-cce853eba7f4</stp>
+        <tr r="F60" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>bc2e7195-76e3-4159-8243-011bdcf90594</stp>
+        <tr r="F24" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>c54ad7f4-d3ef-480c-8313-38827f8dbe6b</stp>
+        <tr r="F30" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>4ee2baef-56ec-4e3e-8e0c-a643d9a9dd6e</stp>
+        <tr r="F56" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>ac373391-4f9b-4c8e-af50-19aeb31120a8</stp>
+        <tr r="F42" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>c509447d-8b49-4a96-922f-a2e93d25eb56</stp>
+        <tr r="F31" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>8013959f-4572-49b3-9c9b-c4e89793109e</stp>
+        <tr r="F20" s="1"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>b31c3e27-17d5-41eb-a747-e37c594a406e</stp>
+        <tr r="F23" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,23 +837,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -499,23 +872,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,46 +1047,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="41.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C2" s="5">
         <f t="shared" ref="C2:E2" si="0">IF(C3="FY",D2-1,IF(C3="Q4",D2-1,D2))</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" si="0"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F2" s="5">
         <f>IF(F3="FY",G2-1,IF(F3="Q4",G2-1,G2))</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G2" s="5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:E3" si="1">IF(D3="FY","FY",IF(D3="Q4","Q3",IF(D3="Q3","Q2",IF(D3="Q2","Q1",IF(D3="Q1","Q4")))))</f>
         <v>FY</v>
@@ -748,868 +1105,868 @@
         <v>FY</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" cm="1">
-        <f t="array" ref="C5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>229234</v>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,C$2&amp;C$3,"SimFin")/1000000,0)</f>
+        <v>265595</v>
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>265595</v>
+        <v>260174</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>260174</v>
+        <v>274515</v>
       </c>
       <c r="F5" s="1" cm="1">
         <f t="array" ref="F5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>274515</v>
+        <v>365817</v>
       </c>
       <c r="G5" s="1" cm="1">
         <f t="array" ref="G5">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B5,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>365817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>394328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>14</v>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="1" cm="1">
         <f t="array" ref="C6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-141048</v>
+        <v>-163756</v>
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" ref="D6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-163756</v>
+        <v>-161782</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-161782</v>
+        <v>-169559</v>
       </c>
       <c r="F6" s="1" cm="1">
         <f t="array" ref="F6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-169559</v>
+        <v>-212981</v>
       </c>
       <c r="G6" s="1" cm="1">
         <f t="array" ref="G6">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B6,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-212981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-223546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>18</v>
+      <c r="B7" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="6" cm="1">
         <f t="array" ref="C7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>88186</v>
+        <v>101839</v>
       </c>
       <c r="D7" s="6" cm="1">
         <f t="array" ref="D7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>101839</v>
+        <v>98392</v>
       </c>
       <c r="E7" s="6" cm="1">
         <f t="array" ref="E7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>98392</v>
+        <v>104956</v>
       </c>
       <c r="F7" s="6" cm="1">
         <f t="array" ref="F7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>104956</v>
+        <v>152836</v>
       </c>
       <c r="G7" s="6" cm="1">
         <f t="array" ref="G7">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B7,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>152836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>170782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="1" cm="1">
         <f t="array" ref="C8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-26842</v>
+        <v>-30941</v>
       </c>
       <c r="D8" s="1" cm="1">
         <f t="array" ref="D8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-30941</v>
+        <v>-34462</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-34462</v>
+        <v>-38668</v>
       </c>
       <c r="F8" s="1" cm="1">
         <f t="array" ref="F8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-38668</v>
+        <v>-43887</v>
       </c>
       <c r="G8" s="1" cm="1">
         <f t="array" ref="G8">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B8,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-43887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-51345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>21</v>
+      <c r="B9" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="1" cm="1">
         <f t="array" ref="C9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-15261</v>
+        <v>-16705</v>
       </c>
       <c r="D9" s="1" cm="1">
         <f t="array" ref="D9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-16705</v>
+        <v>-18245</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-18245</v>
+        <v>-19916</v>
       </c>
       <c r="F9" s="1" cm="1">
         <f t="array" ref="F9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-19916</v>
+        <v>-21973</v>
       </c>
       <c r="G9" s="1" cm="1">
         <f t="array" ref="G9">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B9,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-21973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-25094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>24</v>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="1" cm="1">
         <f t="array" ref="C10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-11581</v>
+        <v>-14236</v>
       </c>
       <c r="D10" s="1" cm="1">
         <f t="array" ref="D10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-14236</v>
+        <v>-16217</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-16217</v>
+        <v>-18752</v>
       </c>
       <c r="F10" s="1" cm="1">
         <f t="array" ref="F10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-18752</v>
+        <v>-21914</v>
       </c>
       <c r="G10" s="1" cm="1">
         <f t="array" ref="G10">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B10,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-21914</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-26251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>28</v>
+      <c r="B11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="6" cm="1">
         <f t="array" ref="C11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>61344</v>
+        <v>70898</v>
       </c>
       <c r="D11" s="6" cm="1">
         <f t="array" ref="D11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>70898</v>
+        <v>63930</v>
       </c>
       <c r="E11" s="6" cm="1">
         <f t="array" ref="E11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>63930</v>
+        <v>66288</v>
       </c>
       <c r="F11" s="6" cm="1">
         <f t="array" ref="F11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>66288</v>
+        <v>108949</v>
       </c>
       <c r="G11" s="6" cm="1">
         <f t="array" ref="G11">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B11,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>108949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>119437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>36</v>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C12" s="1" cm="1">
         <f t="array" ref="C12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>2745</v>
+        <v>2005</v>
       </c>
       <c r="D12" s="1" cm="1">
         <f t="array" ref="D12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>2005</v>
+        <v>1807</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>1807</v>
+        <v>803</v>
       </c>
       <c r="F12" s="1" cm="1">
         <f t="array" ref="F12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>803</v>
+        <v>258</v>
       </c>
       <c r="G12" s="1" cm="1">
         <f t="array" ref="G12">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B12,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>37</v>
+      <c r="B13" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="1" cm="1">
         <f t="array" ref="C13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>64089</v>
+        <v>72903</v>
       </c>
       <c r="D13" s="1" cm="1">
         <f t="array" ref="D13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>72903</v>
+        <v>65737</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>65737</v>
+        <v>67091</v>
       </c>
       <c r="F13" s="1" cm="1">
         <f t="array" ref="F13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>67091</v>
+        <v>109207</v>
       </c>
       <c r="G13" s="1" cm="1">
         <f t="array" ref="G13">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B13,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>109207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>119103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>53</v>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="1" cm="1">
         <f t="array" ref="C14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-15738</v>
+        <v>-13372</v>
       </c>
       <c r="D14" s="1" cm="1">
         <f t="array" ref="D14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-13372</v>
+        <v>-10481</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-10481</v>
+        <v>-9680</v>
       </c>
       <c r="F14" s="1" cm="1">
         <f t="array" ref="F14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-9680</v>
+        <v>-14527</v>
       </c>
       <c r="G14" s="1" cm="1">
         <f t="array" ref="G14">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B14,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-14527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-19300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>64</v>
+      <c r="B15" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="6" cm="1">
         <f t="array" ref="C15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>48351</v>
+        <v>59531</v>
       </c>
       <c r="D15" s="6" cm="1">
         <f t="array" ref="D15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>59531</v>
+        <v>55256</v>
       </c>
       <c r="E15" s="6" cm="1">
         <f t="array" ref="E15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>55256</v>
+        <v>57411</v>
       </c>
       <c r="F15" s="6" cm="1">
         <f t="array" ref="F15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>57411</v>
+        <v>94680</v>
       </c>
       <c r="G15" s="6" cm="1">
         <f t="array" ref="G15">IFERROR(_xll.xlquoteFinancials(Symbol,PL,$B15,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>94680</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>99803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>11</v>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="1" cm="1">
         <f t="array" ref="C18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>20289</v>
+        <v>25913</v>
       </c>
       <c r="D18" s="1" cm="1">
         <f t="array" ref="D18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>25913</v>
+        <v>48844</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>48844</v>
+        <v>38016</v>
       </c>
       <c r="F18" s="1" cm="1">
         <f t="array" ref="F18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>38016</v>
+        <v>34940</v>
       </c>
       <c r="G18" s="1" cm="1">
         <f t="array" ref="G18">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B18,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>34940</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>23646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>12</v>
+      <c r="B19" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="1" cm="1">
         <f t="array" ref="C19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>53892</v>
+        <v>40388</v>
       </c>
       <c r="D19" s="1" cm="1">
         <f t="array" ref="D19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>40388</v>
+        <v>51713</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>51713</v>
+        <v>52927</v>
       </c>
       <c r="F19" s="1" cm="1">
         <f t="array" ref="F19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>52927</v>
+        <v>27699</v>
       </c>
       <c r="G19" s="1" cm="1">
         <f t="array" ref="G19">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B19,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>27699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>24658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>13</v>
+      <c r="B20" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="1" cm="1">
         <f t="array" ref="C20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>17874</v>
+        <v>23186</v>
       </c>
       <c r="D20" s="1" cm="1">
         <f t="array" ref="D20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>23186</v>
+        <v>22926</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>22926</v>
+        <v>16120</v>
       </c>
       <c r="F20" s="1" cm="1">
         <f t="array" ref="F20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>16120</v>
+        <v>26278</v>
       </c>
       <c r="G20" s="1" cm="1">
         <f t="array" ref="G20">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B20,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>26278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>17</v>
+      <c r="B21" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="1" cm="1">
         <f t="array" ref="C21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>4855</v>
+        <v>3956</v>
       </c>
       <c r="D21" s="1" cm="1">
         <f t="array" ref="D21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>3956</v>
+        <v>4106</v>
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" ref="E21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>4106</v>
+        <v>4061</v>
       </c>
       <c r="F21" s="1" cm="1">
         <f t="array" ref="F21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>4061</v>
+        <v>6580</v>
       </c>
       <c r="G21" s="1" cm="1">
         <f t="array" ref="G21">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B21,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>6580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>22</v>
+      <c r="B22" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="1" cm="1">
         <f t="array" ref="C22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>31735</v>
+        <v>37896</v>
       </c>
       <c r="D22" s="1" cm="1">
         <f t="array" ref="D22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>37896</v>
+        <v>35230</v>
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" ref="E22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>35230</v>
+        <v>32589</v>
       </c>
       <c r="F22" s="1" cm="1">
         <f t="array" ref="F22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>32589</v>
+        <v>39339</v>
       </c>
       <c r="G22" s="1" cm="1">
         <f t="array" ref="G22">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B22,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>39339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>53971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>30</v>
+      <c r="B23" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="6" cm="1">
         <f t="array" ref="C23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>128645</v>
+        <v>131339</v>
       </c>
       <c r="D23" s="6" cm="1">
         <f t="array" ref="D23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>131339</v>
+        <v>162819</v>
       </c>
       <c r="E23" s="6" cm="1">
         <f t="array" ref="E23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>162819</v>
+        <v>143713</v>
       </c>
       <c r="F23" s="6" cm="1">
         <f t="array" ref="F23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>143713</v>
+        <v>134836</v>
       </c>
       <c r="G23" s="6" cm="1">
         <f t="array" ref="G23">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B23,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>134836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>135405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>31</v>
+      <c r="B24" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="1" cm="1">
         <f t="array" ref="C24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>33783</v>
+        <v>41304</v>
       </c>
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>41304</v>
+        <v>37378</v>
       </c>
       <c r="E24" s="1" cm="1">
         <f t="array" ref="E24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>37378</v>
+        <v>36766</v>
       </c>
       <c r="F24" s="1" cm="1">
         <f t="array" ref="F24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>36766</v>
+        <v>39440</v>
       </c>
       <c r="G24" s="1" cm="1">
         <f t="array" ref="G24">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B24,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>39440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>34</v>
+      <c r="B25" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C25" s="1" cm="1">
         <f t="array" ref="C25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>194714</v>
+        <v>170799</v>
       </c>
       <c r="D25" s="1" cm="1">
         <f t="array" ref="D25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>170799</v>
+        <v>105341</v>
       </c>
       <c r="E25" s="1" cm="1">
         <f t="array" ref="E25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>105341</v>
+        <v>100887</v>
       </c>
       <c r="F25" s="1" cm="1">
         <f t="array" ref="F25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>100887</v>
+        <v>127877</v>
       </c>
       <c r="G25" s="1" cm="1">
         <f t="array" ref="G25">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B25,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>127877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>120805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>38</v>
+      <c r="B26" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="1" cm="1">
         <f t="array" ref="C26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>18177</v>
+        <v>22283</v>
       </c>
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>22283</v>
+        <v>32978</v>
       </c>
       <c r="E26" s="1" cm="1">
         <f t="array" ref="E26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>32978</v>
+        <v>42522</v>
       </c>
       <c r="F26" s="1" cm="1">
         <f t="array" ref="F26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>42522</v>
+        <v>48849</v>
       </c>
       <c r="G26" s="1" cm="1">
         <f t="array" ref="G26">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B26,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>48849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>54428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
-        <v>49</v>
+      <c r="B27" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C27" s="6" cm="1">
         <f t="array" ref="C27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>246674</v>
+        <v>234386</v>
       </c>
       <c r="D27" s="6" cm="1">
         <f t="array" ref="D27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>234386</v>
+        <v>175697</v>
       </c>
       <c r="E27" s="6" cm="1">
         <f t="array" ref="E27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>175697</v>
+        <v>180175</v>
       </c>
       <c r="F27" s="6" cm="1">
         <f t="array" ref="F27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>180175</v>
+        <v>216166</v>
       </c>
       <c r="G27" s="6" cm="1">
         <f t="array" ref="G27">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B27,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>216166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>217350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
-        <v>50</v>
+      <c r="B28" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C28" s="6" cm="1">
         <f t="array" ref="C28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>375319</v>
+        <v>365725</v>
       </c>
       <c r="D28" s="6" cm="1">
         <f t="array" ref="D28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>365725</v>
+        <v>338516</v>
       </c>
       <c r="E28" s="6" cm="1">
         <f t="array" ref="E28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>338516</v>
+        <v>323888</v>
       </c>
       <c r="F28" s="6" cm="1">
         <f t="array" ref="F28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>323888</v>
+        <v>351002</v>
       </c>
       <c r="G28" s="6" cm="1">
         <f t="array" ref="G28">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B28,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>351002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>352755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
-        <v>51</v>
+      <c r="B29" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C29" s="1" cm="1">
         <f t="array" ref="C29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>44242</v>
+        <v>55888</v>
       </c>
       <c r="D29" s="1" cm="1">
         <f t="array" ref="D29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>55888</v>
+        <v>46236</v>
       </c>
       <c r="E29" s="1" cm="1">
         <f t="array" ref="E29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>46236</v>
+        <v>42296</v>
       </c>
       <c r="F29" s="1" cm="1">
         <f t="array" ref="F29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>42296</v>
+        <v>54763</v>
       </c>
       <c r="G29" s="1" cm="1">
         <f t="array" ref="G29">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B29,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>54763</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>64115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
-        <v>56</v>
+      <c r="B30" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C30" s="1" cm="1">
         <f t="array" ref="C30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>18473</v>
+        <v>20748</v>
       </c>
       <c r="D30" s="1" cm="1">
         <f t="array" ref="D30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>20748</v>
+        <v>16240</v>
       </c>
       <c r="E30" s="1" cm="1">
         <f t="array" ref="E30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>16240</v>
+        <v>13769</v>
       </c>
       <c r="F30" s="1" cm="1">
         <f t="array" ref="F30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>13769</v>
+        <v>6000</v>
       </c>
       <c r="G30" s="1" cm="1">
         <f t="array" ref="G30">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B30,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>9982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
-        <v>60</v>
+      <c r="B31" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="1" cm="1">
         <f t="array" ref="C31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>38099</v>
+        <v>39293</v>
       </c>
       <c r="D31" s="1" cm="1">
         <f t="array" ref="D31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>39293</v>
+        <v>43242</v>
       </c>
       <c r="E31" s="1" cm="1">
         <f t="array" ref="E31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>43242</v>
+        <v>49327</v>
       </c>
       <c r="F31" s="1" cm="1">
         <f t="array" ref="F31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>49327</v>
+        <v>55105</v>
       </c>
       <c r="G31" s="1" cm="1">
         <f t="array" ref="G31">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B31,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>55105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>68757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
-        <v>66</v>
+      <c r="B32" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C32" s="6" cm="1">
         <f t="array" ref="C32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>100814</v>
+        <v>115929</v>
       </c>
       <c r="D32" s="6" cm="1">
         <f t="array" ref="D32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>115929</v>
+        <v>105718</v>
       </c>
       <c r="E32" s="6" cm="1">
         <f t="array" ref="E32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>105718</v>
+        <v>105392</v>
       </c>
       <c r="F32" s="6" cm="1">
         <f t="array" ref="F32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>105392</v>
+        <v>115868</v>
       </c>
       <c r="G32" s="6" cm="1">
         <f t="array" ref="G32">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B32,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>115868</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>142854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
-        <v>67</v>
+      <c r="B33" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C33" s="1" cm="1">
         <f t="array" ref="C33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>97207</v>
+        <v>93735</v>
       </c>
       <c r="D33" s="1" cm="1">
         <f t="array" ref="D33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>93735</v>
+        <v>91807</v>
       </c>
       <c r="E33" s="1" cm="1">
         <f t="array" ref="E33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>91807</v>
+        <v>98667</v>
       </c>
       <c r="F33" s="1" cm="1">
         <f t="array" ref="F33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>98667</v>
+        <v>118719</v>
       </c>
       <c r="G33" s="1" cm="1">
         <f t="array" ref="G33">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B33,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>118719</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>110087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
-        <v>70</v>
+      <c r="B34" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C34" s="1" cm="1">
         <f t="array" ref="C34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>43251</v>
+        <v>48914</v>
       </c>
       <c r="D34" s="1" cm="1">
         <f t="array" ref="D34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>48914</v>
+        <v>50503</v>
       </c>
       <c r="E34" s="1" cm="1">
         <f t="array" ref="E34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>50503</v>
+        <v>54490</v>
       </c>
       <c r="F34" s="1" cm="1">
         <f t="array" ref="F34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>54490</v>
+        <v>53325</v>
       </c>
       <c r="G34" s="1" cm="1">
         <f t="array" ref="G34">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B34,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>53325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B35">
-        <v>81</v>
+      <c r="B35" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C35" s="6" cm="1">
         <f t="array" ref="C35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>140458</v>
+        <v>142649</v>
       </c>
       <c r="D35" s="6" cm="1">
         <f t="array" ref="D35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>142649</v>
+        <v>142310</v>
       </c>
       <c r="E35" s="6" cm="1">
         <f t="array" ref="E35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>142310</v>
+        <v>153157</v>
       </c>
       <c r="F35" s="6" cm="1">
         <f t="array" ref="F35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>153157</v>
+        <v>172044</v>
       </c>
       <c r="G35" s="6" cm="1">
         <f t="array" ref="G35">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B35,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>172044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>159229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
-        <v>82</v>
+      <c r="B36" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="6" cm="1">
         <f t="array" ref="C36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>241272</v>
+        <v>258578</v>
       </c>
       <c r="D36" s="6" cm="1">
         <f t="array" ref="D36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>258578</v>
+        <v>248028</v>
       </c>
       <c r="E36" s="6" cm="1">
         <f t="array" ref="E36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>248028</v>
+        <v>258549</v>
       </c>
       <c r="F36" s="6" cm="1">
         <f t="array" ref="F36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>258549</v>
+        <v>287912</v>
       </c>
       <c r="G36" s="6" cm="1">
         <f t="array" ref="G36">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B36,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>287912</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+        <v>302083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37">
-        <v>83</v>
+      <c r="B37" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C37" s="1" cm="1">
         <f t="array" ref="C37">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B37,C$2&amp;C$3,"SimFin")/1000000,0)</f>
@@ -1632,40 +1989,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
-        <v>84</v>
+      <c r="B38" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C38" s="1" cm="1">
         <f t="array" ref="C38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>35867</v>
+        <v>40201</v>
       </c>
       <c r="D38" s="1" cm="1">
         <f t="array" ref="D38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>40201</v>
+        <v>45174</v>
       </c>
       <c r="E38" s="1" cm="1">
         <f t="array" ref="E38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>45174</v>
+        <v>50779</v>
       </c>
       <c r="F38" s="1" cm="1">
         <f t="array" ref="F38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>50779</v>
+        <v>57365</v>
       </c>
       <c r="G38" s="1" cm="1">
         <f t="array" ref="G38">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B38,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>57365</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>64849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
-        <v>88</v>
+      <c r="B39" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C39" s="1" cm="1">
         <f t="array" ref="C39">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B39,C$2&amp;C$3,"SimFin")/1000000,0)</f>
@@ -1688,68 +2045,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40">
-        <v>89</v>
+      <c r="B40" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C40" s="1" cm="1">
         <f t="array" ref="C40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>98330</v>
+        <v>70400</v>
       </c>
       <c r="D40" s="1" cm="1">
         <f t="array" ref="D40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>70400</v>
+        <v>45898</v>
       </c>
       <c r="E40" s="1" cm="1">
         <f t="array" ref="E40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>45898</v>
+        <v>14966</v>
       </c>
       <c r="F40" s="1" cm="1">
         <f t="array" ref="F40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>14966</v>
+        <v>5562</v>
       </c>
       <c r="G40" s="1" cm="1">
         <f t="array" ref="G40">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B40,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>5562</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-3068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41">
-        <v>90</v>
+      <c r="B41" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C41" s="1" cm="1">
         <f t="array" ref="C41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-150</v>
+        <v>-3454</v>
       </c>
       <c r="D41" s="1" cm="1">
         <f t="array" ref="D41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-3454</v>
+        <v>-584</v>
       </c>
       <c r="E41" s="1" cm="1">
         <f t="array" ref="E41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-584</v>
+        <v>-406</v>
       </c>
       <c r="F41" s="1" cm="1">
         <f t="array" ref="F41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-406</v>
+        <v>163</v>
       </c>
       <c r="G41" s="1" cm="1">
         <f t="array" ref="G41">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B41,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-11109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
-        <v>92</v>
+      <c r="B42" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C42" s="1" cm="1">
         <f t="array" ref="C42">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B42,C$2&amp;C$3,"SimFin")/1000000,0)</f>
@@ -1772,216 +2129,213 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
-        <v>93</v>
+      <c r="B43" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C43" s="6" cm="1">
         <f t="array" ref="C43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>134047</v>
+        <v>107147</v>
       </c>
       <c r="D43" s="6" cm="1">
         <f t="array" ref="D43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>107147</v>
+        <v>90488</v>
       </c>
       <c r="E43" s="6" cm="1">
         <f t="array" ref="E43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>90488</v>
+        <v>65339</v>
       </c>
       <c r="F43" s="6" cm="1">
         <f t="array" ref="F43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>65339</v>
+        <v>63090</v>
       </c>
       <c r="G43" s="6" cm="1">
         <f t="array" ref="G43">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B43,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>63090</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>50672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
-        <v>94</v>
-      </c>
-      <c r="C44" s="6" cm="1">
-        <f t="array" ref="C44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>375319</v>
-      </c>
-      <c r="D44" s="6" cm="1">
-        <f t="array" ref="D44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,D$2&amp;D$3,"SimFin")/1000000,0)</f>
+      <c r="C44" s="6">
+        <f>C36+C43</f>
         <v>365725</v>
       </c>
-      <c r="E44" s="6" cm="1">
-        <f t="array" ref="E44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,E$2&amp;E$3,"SimFin")/1000000,0)</f>
+      <c r="D44" s="6">
+        <f t="shared" ref="D44:G44" si="2">D36+D43</f>
         <v>338516</v>
       </c>
-      <c r="F44" s="6" cm="1">
-        <f t="array" ref="F44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,F$2&amp;F$3,"SimFin")/1000000,0)</f>
+      <c r="E44" s="6">
+        <f t="shared" si="2"/>
         <v>323888</v>
       </c>
-      <c r="G44" s="6" cm="1">
-        <f t="array" ref="G44">IFERROR(_xll.xlquoteFinancials(Symbol,BS,$B44,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
         <v>351002</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G44" s="6">
+        <f t="shared" si="2"/>
+        <v>352755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C47" s="1" cm="1">
         <f t="array" ref="C47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>48351</v>
+        <v>59531</v>
       </c>
       <c r="D47" s="1" cm="1">
         <f t="array" ref="D47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>59531</v>
+        <v>55256</v>
       </c>
       <c r="E47" s="1" cm="1">
         <f t="array" ref="E47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>55256</v>
+        <v>57411</v>
       </c>
       <c r="F47" s="1" cm="1">
         <f t="array" ref="F47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>57411</v>
+        <v>94680</v>
       </c>
       <c r="G47" s="1" cm="1">
         <f t="array" ref="G47">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B47,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>94680</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>99803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48">
-        <v>13</v>
+        <v>41</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C48" s="1" cm="1">
         <f t="array" ref="C48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>10903</v>
       </c>
       <c r="D48" s="1" cm="1">
         <f t="array" ref="D48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>12547</v>
       </c>
       <c r="E48" s="1" cm="1">
         <f t="array" ref="E48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>11056</v>
       </c>
       <c r="F48" s="1" cm="1">
         <f t="array" ref="F48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>11284</v>
       </c>
       <c r="G48" s="1" cm="1">
         <f t="array" ref="G48">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B48,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C49" s="1" cm="1">
         <f t="array" ref="C49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>10157</v>
+        <v>-27250</v>
       </c>
       <c r="D49" s="1" cm="1">
         <f t="array" ref="D49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>10903</v>
+        <v>5076</v>
       </c>
       <c r="E49" s="1" cm="1">
         <f t="array" ref="E49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>12547</v>
+        <v>6517</v>
       </c>
       <c r="F49" s="1" cm="1">
         <f t="array" ref="F49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>11056</v>
+        <v>2985</v>
       </c>
       <c r="G49" s="1" cm="1">
         <f t="array" ref="G49">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B49,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>11284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C50" s="1" cm="1">
         <f t="array" ref="C50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>10806</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1" cm="1">
         <f t="array" ref="D50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-27250</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" cm="1">
         <f t="array" ref="E50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>5076</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1" cm="1">
         <f t="array" ref="F50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>6517</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1" cm="1">
         <f t="array" ref="G50">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B50,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C51" s="1" cm="1">
         <f t="array" ref="C51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>34250</v>
       </c>
       <c r="D51" s="1" cm="1">
         <f t="array" ref="D51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-3488</v>
       </c>
       <c r="E51" s="1" cm="1">
         <f t="array" ref="E51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>5690</v>
       </c>
       <c r="F51" s="1" cm="1">
         <f t="array" ref="F51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-4911</v>
       </c>
       <c r="G51" s="1" cm="1">
         <f t="array" ref="G51">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B51,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C52" s="1" cm="1">
         <f t="array" ref="C52">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B52,C$2&amp;C$3,"SimFin")/1000000,0)</f>
@@ -2004,12 +2358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="C53" s="1" cm="1">
         <f t="array" ref="C53">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B53,C$2&amp;C$3,"SimFin")/1000000,0)</f>
@@ -2032,620 +2386,396 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="C54" s="1" cm="1">
         <f t="array" ref="C54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-5089</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1" cm="1">
         <f t="array" ref="D54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>34250</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" cm="1">
         <f t="array" ref="E54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-3488</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1" cm="1">
         <f t="array" ref="F54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>5690</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1" cm="1">
         <f t="array" ref="G54">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B54,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-4911</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="6" cm="1">
+        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$2&amp;C$3,"SimFin")/1000000,0)</f>
+        <v>77434</v>
+      </c>
+      <c r="D55" s="6" cm="1">
+        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$2&amp;D$3,"SimFin")/1000000,0)</f>
+        <v>69391</v>
+      </c>
+      <c r="E55" s="6" cm="1">
+        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$2&amp;E$3,"SimFin")/1000000,0)</f>
+        <v>80674</v>
+      </c>
+      <c r="F55" s="6" cm="1">
+        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$2&amp;F$3,"SimFin")/1000000,0)</f>
+        <v>104038</v>
+      </c>
+      <c r="G55" s="6" cm="1">
+        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>122151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B55">
-        <v>20</v>
-      </c>
-      <c r="C55" s="1" cm="1">
-        <f t="array" ref="C55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" cm="1">
-        <f t="array" ref="D55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" cm="1">
-        <f t="array" ref="E55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="1" cm="1">
-        <f t="array" ref="F55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" cm="1">
-        <f t="array" ref="G55">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B55,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56">
-        <v>21</v>
+      <c r="B56" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C56" s="1" cm="1">
         <f t="array" ref="C56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-13313</v>
       </c>
       <c r="D56" s="1" cm="1">
         <f t="array" ref="D56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-10495</v>
       </c>
       <c r="E56" s="1" cm="1">
         <f t="array" ref="E56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-7309</v>
       </c>
       <c r="F56" s="1" cm="1">
         <f t="array" ref="F56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-11085</v>
       </c>
       <c r="G56" s="1" cm="1">
         <f t="array" ref="G56">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B56,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-10708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C57" s="1" cm="1">
         <f t="array" ref="C57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>30845</v>
       </c>
       <c r="D57" s="1" cm="1">
         <f t="array" ref="D57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>58093</v>
       </c>
       <c r="E57" s="1" cm="1">
         <f t="array" ref="E57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>5453</v>
       </c>
       <c r="F57" s="1" cm="1">
         <f t="array" ref="F57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-3075</v>
       </c>
       <c r="G57" s="1" cm="1">
         <f t="array" ref="G57">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B57,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-9560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C58" s="1" cm="1">
         <f t="array" ref="C58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-721</v>
       </c>
       <c r="D58" s="1" cm="1">
         <f t="array" ref="D58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-624</v>
       </c>
       <c r="E58" s="1" cm="1">
         <f t="array" ref="E58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-1524</v>
       </c>
       <c r="F58" s="1" cm="1">
         <f t="array" ref="F58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="G58" s="1" cm="1">
         <f t="array" ref="G58">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B58,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C59" s="1" cm="1">
         <f t="array" ref="C59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-745</v>
       </c>
       <c r="D59" s="1" cm="1">
         <f t="array" ref="D59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-1078</v>
       </c>
       <c r="E59" s="1" cm="1">
         <f t="array" ref="E59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-909</v>
       </c>
       <c r="F59" s="1" cm="1">
         <f t="array" ref="F59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
+        <v>-352</v>
       </c>
       <c r="G59" s="1" cm="1">
         <f t="array" ref="G59">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B59,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-1780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C60" s="6" cm="1">
         <f t="array" ref="C60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>64225</v>
+        <v>16066</v>
       </c>
       <c r="D60" s="6" cm="1">
         <f t="array" ref="D60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>77434</v>
+        <v>45896</v>
       </c>
       <c r="E60" s="6" cm="1">
         <f t="array" ref="E60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>69391</v>
+        <v>-4289</v>
       </c>
       <c r="F60" s="6" cm="1">
         <f t="array" ref="F60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>80674</v>
+        <v>-14545</v>
       </c>
       <c r="G60" s="6" cm="1">
         <f t="array" ref="G60">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B60,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>104038</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-22354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C61" s="1" cm="1">
         <f t="array" ref="C61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-12451</v>
+        <v>-13712</v>
       </c>
       <c r="D61" s="1" cm="1">
         <f t="array" ref="D61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-13313</v>
+        <v>-14119</v>
       </c>
       <c r="E61" s="1" cm="1">
         <f t="array" ref="E61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-10495</v>
+        <v>-14081</v>
       </c>
       <c r="F61" s="1" cm="1">
         <f t="array" ref="F61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-7309</v>
+        <v>-14467</v>
       </c>
       <c r="G61" s="1" cm="1">
         <f t="array" ref="G61">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B61,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-11085</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-14841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C62" s="1" cm="1">
         <f t="array" ref="C62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-33542</v>
+        <v>432</v>
       </c>
       <c r="D62" s="1" cm="1">
         <f t="array" ref="D62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>30845</v>
+        <v>-7819</v>
       </c>
       <c r="E62" s="1" cm="1">
         <f t="array" ref="E62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>58093</v>
+        <v>2499</v>
       </c>
       <c r="F62" s="1" cm="1">
         <f t="array" ref="F62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>5335</v>
+        <v>12665</v>
       </c>
       <c r="G62" s="1" cm="1">
         <f t="array" ref="G62">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B62,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-2819</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C63" s="1" cm="1">
         <f t="array" ref="C63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-329</v>
+        <v>-72069</v>
       </c>
       <c r="D63" s="1" cm="1">
         <f t="array" ref="D63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-721</v>
+        <v>-66116</v>
       </c>
       <c r="E63" s="1" cm="1">
         <f t="array" ref="E63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-624</v>
+        <v>-72358</v>
       </c>
       <c r="F63" s="1" cm="1">
         <f t="array" ref="F63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-1524</v>
+        <v>-85971</v>
       </c>
       <c r="G63" s="1" cm="1">
         <f t="array" ref="G63">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B63,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-89402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C64" s="1" cm="1">
         <f t="array" ref="C64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-124</v>
+        <v>-2527</v>
       </c>
       <c r="D64" s="1" cm="1">
         <f t="array" ref="D64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-745</v>
+        <v>-2922</v>
       </c>
       <c r="E64" s="1" cm="1">
         <f t="array" ref="E64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-1078</v>
+        <v>-2880</v>
       </c>
       <c r="F64" s="1" cm="1">
         <f t="array" ref="F64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-791</v>
+        <v>-5580</v>
       </c>
       <c r="G64" s="1" cm="1">
         <f t="array" ref="G64">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B64,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-608</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+        <v>-6383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="6" cm="1">
+        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$2&amp;C$3,"SimFin")/1000000,0)</f>
+        <v>-87876</v>
+      </c>
+      <c r="D65" s="6" cm="1">
+        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$2&amp;D$3,"SimFin")/1000000,0)</f>
+        <v>-90976</v>
+      </c>
+      <c r="E65" s="6" cm="1">
+        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$2&amp;E$3,"SimFin")/1000000,0)</f>
+        <v>-86820</v>
+      </c>
+      <c r="F65" s="6" cm="1">
+        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$2&amp;F$3,"SimFin")/1000000,0)</f>
+        <v>-93353</v>
+      </c>
+      <c r="G65" s="6" cm="1">
+        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>-110749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>59</v>
       </c>
-      <c r="B65">
-        <v>43</v>
-      </c>
-      <c r="C65" s="1" cm="1">
-        <f t="array" ref="C65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="1" cm="1">
-        <f t="array" ref="D65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" cm="1">
-        <f t="array" ref="E65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="1" cm="1">
-        <f t="array" ref="F65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" cm="1">
-        <f t="array" ref="G65">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B65,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" cm="1">
+        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$2&amp;C$3,"SimFin")/1000000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" cm="1">
+        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$2&amp;D$3,"SimFin")/1000000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" cm="1">
+        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$2&amp;E$3,"SimFin")/1000000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" cm="1">
+        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$2&amp;F$3,"SimFin")/1000000,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" cm="1">
+        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$2&amp;G$3,"SimFin")/1000000,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B66">
-        <v>44</v>
-      </c>
-      <c r="C66" s="6" cm="1">
-        <f t="array" ref="C66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-46446</v>
-      </c>
-      <c r="D66" s="6" cm="1">
-        <f t="array" ref="D66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>16066</v>
-      </c>
-      <c r="E66" s="6" cm="1">
-        <f t="array" ref="E66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>45896</v>
-      </c>
-      <c r="F66" s="6" cm="1">
-        <f t="array" ref="F66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-4289</v>
-      </c>
-      <c r="G66" s="6" cm="1">
-        <f t="array" ref="G66">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B66,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-14545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67">
-        <v>45</v>
-      </c>
-      <c r="C67" s="1" cm="1">
+      <c r="B67" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="6" cm="1">
         <f t="array" ref="C67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-12769</v>
-      </c>
-      <c r="D67" s="1" cm="1">
+        <v>5624</v>
+      </c>
+      <c r="D67" s="6" cm="1">
         <f t="array" ref="D67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-13712</v>
-      </c>
-      <c r="E67" s="1" cm="1">
+        <v>24311</v>
+      </c>
+      <c r="E67" s="6" cm="1">
         <f t="array" ref="E67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-14119</v>
-      </c>
-      <c r="F67" s="1" cm="1">
+        <v>-10435</v>
+      </c>
+      <c r="F67" s="6" cm="1">
         <f t="array" ref="F67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-14081</v>
-      </c>
-      <c r="G67" s="1" cm="1">
+        <v>-3860</v>
+      </c>
+      <c r="G67" s="6" cm="1">
         <f t="array" ref="G67">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B67,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-14467</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68">
-        <v>46</v>
-      </c>
-      <c r="C68" s="1" cm="1">
-        <f t="array" ref="C68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>29014</v>
-      </c>
-      <c r="D68" s="1" cm="1">
-        <f t="array" ref="D68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>432</v>
-      </c>
-      <c r="E68" s="1" cm="1">
-        <f t="array" ref="E68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-7819</v>
-      </c>
-      <c r="F68" s="1" cm="1">
-        <f t="array" ref="F68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>2499</v>
-      </c>
-      <c r="G68" s="1" cm="1">
-        <f t="array" ref="G68">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B68,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>12665</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69">
-        <v>51</v>
-      </c>
-      <c r="C69" s="1" cm="1">
-        <f t="array" ref="C69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-32345</v>
-      </c>
-      <c r="D69" s="1" cm="1">
-        <f t="array" ref="D69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-72069</v>
-      </c>
-      <c r="E69" s="1" cm="1">
-        <f t="array" ref="E69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-66116</v>
-      </c>
-      <c r="F69" s="1" cm="1">
-        <f t="array" ref="F69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-71478</v>
-      </c>
-      <c r="G69" s="1" cm="1">
-        <f t="array" ref="G69">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B69,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-84866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70">
-        <v>54</v>
-      </c>
-      <c r="C70" s="1" cm="1">
-        <f t="array" ref="C70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-1874</v>
-      </c>
-      <c r="D70" s="1" cm="1">
-        <f t="array" ref="D70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-2527</v>
-      </c>
-      <c r="E70" s="1" cm="1">
-        <f t="array" ref="E70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-2922</v>
-      </c>
-      <c r="F70" s="1" cm="1">
-        <f t="array" ref="F70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-3760</v>
-      </c>
-      <c r="G70" s="1" cm="1">
-        <f t="array" ref="G70">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B70,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-6685</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71">
-        <v>55</v>
-      </c>
-      <c r="C71" s="1" cm="1">
-        <f t="array" ref="C71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" cm="1">
-        <f t="array" ref="D71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" cm="1">
-        <f t="array" ref="E71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" cm="1">
-        <f t="array" ref="F71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="1" cm="1">
-        <f t="array" ref="G71">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B71,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72">
-        <v>56</v>
-      </c>
-      <c r="C72" s="6" cm="1">
-        <f t="array" ref="C72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-17974</v>
-      </c>
-      <c r="D72" s="6" cm="1">
-        <f t="array" ref="D72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>-87876</v>
-      </c>
-      <c r="E72" s="6" cm="1">
-        <f t="array" ref="E72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>-90976</v>
-      </c>
-      <c r="F72" s="6" cm="1">
-        <f t="array" ref="F72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-86820</v>
-      </c>
-      <c r="G72" s="6" cm="1">
-        <f t="array" ref="G72">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B72,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-93353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73">
-        <v>58</v>
-      </c>
-      <c r="C73" s="1" cm="1">
-        <f t="array" ref="C73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" cm="1">
-        <f t="array" ref="D73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" cm="1">
-        <f t="array" ref="E73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" cm="1">
-        <f t="array" ref="F73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="1" cm="1">
-        <f t="array" ref="G73">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B73,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74">
-        <v>60</v>
-      </c>
-      <c r="C74" s="1" cm="1">
-        <f t="array" ref="C74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="1" cm="1">
-        <f t="array" ref="D74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" cm="1">
-        <f t="array" ref="E74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" cm="1">
-        <f t="array" ref="F74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="1" cm="1">
-        <f t="array" ref="G74">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B74,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75">
-        <v>61</v>
-      </c>
-      <c r="C75" s="6" cm="1">
-        <f t="array" ref="C75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,C$2&amp;C$3,"SimFin")/1000000,0)</f>
-        <v>-195</v>
-      </c>
-      <c r="D75" s="6" cm="1">
-        <f t="array" ref="D75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,D$2&amp;D$3,"SimFin")/1000000,0)</f>
-        <v>5624</v>
-      </c>
-      <c r="E75" s="6" cm="1">
-        <f t="array" ref="E75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,E$2&amp;E$3,"SimFin")/1000000,0)</f>
-        <v>24311</v>
-      </c>
-      <c r="F75" s="6" cm="1">
-        <f t="array" ref="F75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,F$2&amp;F$3,"SimFin")/1000000,0)</f>
-        <v>-10435</v>
-      </c>
-      <c r="G75" s="6" cm="1">
-        <f t="array" ref="G75">IFERROR(_xll.xlquoteFinancials(Symbol,CF,$B75,G$2&amp;G$3,"SimFin")/1000000,0)</f>
-        <v>-3860</v>
+        <v>-10952</v>
       </c>
     </row>
   </sheetData>
